--- a/public/data/soil/soil_table_uganda.xlsx
+++ b/public/data/soil/soil_table_uganda.xlsx
@@ -93,7 +93,7 @@
     <t xml:space="preserve">source_cropland</t>
   </si>
   <si>
-    <t xml:space="preserve">cropland data from Geosurvey: https://geosurvey.qed.ai/about/</t>
+    <t xml:space="preserve">cropland data from MapSPAM: https://mapspam.info/</t>
   </si>
   <si>
     <t xml:space="preserve">source_ruralpop</t>
@@ -1223,10 +1223,10 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>37891.8</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>62163.4</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -1235,10 +1235,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>47.902</v>
+        <v>50.81</v>
       </c>
       <c r="K2" t="n">
-        <v>115.088</v>
+        <v>132.061</v>
       </c>
     </row>
     <row r="3">
@@ -1258,7 +1258,7 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>75021.3</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -1270,7 +1270,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>250.594</v>
+        <v>221.871</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -1293,10 +1293,10 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>73929.3</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>649.2</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -1305,10 +1305,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>188.157</v>
+        <v>201.228</v>
       </c>
       <c r="K4" t="n">
-        <v>1.539</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -1328,10 +1328,10 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>76913</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>773.9</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -1340,10 +1340,10 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>182.197</v>
+        <v>190.065</v>
       </c>
       <c r="K5" t="n">
-        <v>2.356</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1363,10 +1363,10 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>137636.6</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>275.6</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -1375,10 +1375,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>374.572</v>
+        <v>407.384</v>
       </c>
       <c r="K6" t="n">
-        <v>0.96</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1398,10 +1398,10 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>364.5</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>266.9</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1433,10 +1433,10 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>22584.9</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>5163.8</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1445,10 +1445,10 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>121.251</v>
+        <v>139.847</v>
       </c>
       <c r="K8" t="n">
-        <v>21.315</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1468,10 +1468,10 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>25746.2</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>11699.9</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -1480,10 +1480,10 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>103.616</v>
+        <v>108.476</v>
       </c>
       <c r="K9" t="n">
-        <v>57.024</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1503,10 +1503,10 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>13856.9</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>63341</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1515,10 +1515,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>24.822</v>
+        <v>38.464</v>
       </c>
       <c r="K10" t="n">
-        <v>108.068</v>
+        <v>100.374</v>
       </c>
     </row>
     <row r="11">
@@ -1538,10 +1538,10 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>28701.4</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>2311.7</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1550,10 +1550,10 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>151.197</v>
+        <v>200.095</v>
       </c>
       <c r="K11" t="n">
-        <v>11.801</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1573,10 +1573,10 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>30726.2</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>25882.2</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -1585,10 +1585,10 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>130.128</v>
+        <v>169.855</v>
       </c>
       <c r="K12" t="n">
-        <v>63.883</v>
+        <v>38.974</v>
       </c>
     </row>
     <row r="13">
@@ -1602,28 +1602,28 @@
         <v>44</v>
       </c>
       <c r="D13" t="n">
-        <v>336.8</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>28195.1</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>9602.8</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0.475</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>101.779</v>
+        <v>121.719</v>
       </c>
       <c r="K13" t="n">
-        <v>29.606</v>
+        <v>7.329</v>
       </c>
     </row>
     <row r="14">
@@ -1637,28 +1637,28 @@
         <v>46</v>
       </c>
       <c r="D14" t="n">
-        <v>4621.9</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>112.6</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>86570.9</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>14057.1</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>17.905</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0.558</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>425.034</v>
+        <v>539.872</v>
       </c>
       <c r="K14" t="n">
-        <v>87.032</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1672,28 +1672,28 @@
         <v>48</v>
       </c>
       <c r="D15" t="n">
-        <v>40.1</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>12.8</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>1996.9</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>18404.2</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>0.376</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0.187</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>11.792</v>
+        <v>19.207</v>
       </c>
       <c r="K15" t="n">
-        <v>124.432</v>
+        <v>161.597</v>
       </c>
     </row>
     <row r="16">
@@ -1713,10 +1713,10 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>969.1</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>35873.7</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1725,10 +1725,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>4.131</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>43.813</v>
+        <v>67.639</v>
       </c>
     </row>
     <row r="17">
@@ -1742,25 +1742,25 @@
         <v>51</v>
       </c>
       <c r="D17" t="n">
-        <v>31611.2</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>54.9</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>912.5</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>111.942</v>
+        <v>108.654</v>
       </c>
       <c r="I17" t="n">
-        <v>0.133</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>3.181</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -1777,28 +1777,28 @@
         <v>52</v>
       </c>
       <c r="D18" t="n">
-        <v>4969.7</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>48.7</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>5776.5</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>17229.4</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>20.678</v>
+        <v>38.328</v>
       </c>
       <c r="I18" t="n">
-        <v>0.21</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>23.792</v>
+        <v>33.93</v>
       </c>
       <c r="K18" t="n">
-        <v>57.431</v>
+        <v>53.085</v>
       </c>
     </row>
     <row r="19">
@@ -1812,25 +1812,25 @@
         <v>53</v>
       </c>
       <c r="D19" t="n">
-        <v>45361.7</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>542.6</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>324.9</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>47.1</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>186.971</v>
+        <v>191.003</v>
       </c>
       <c r="I19" t="n">
-        <v>1.683</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>0.819</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -1847,28 +1847,28 @@
         <v>54</v>
       </c>
       <c r="D20" t="n">
-        <v>35818.8</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>20.7</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>1041.9</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>47.5</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>161.165</v>
+        <v>183.654</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>6.339</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>0.323</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -1882,25 +1882,25 @@
         <v>55</v>
       </c>
       <c r="D21" t="n">
-        <v>38097.1</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>24.3</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>9780.5</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>139.248</v>
+        <v>133.8</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>42.564</v>
+        <v>22.115</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -1917,28 +1917,28 @@
         <v>57</v>
       </c>
       <c r="D22" t="n">
-        <v>5868.7</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>534.8</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>43295.6</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>4184.5</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>30.401</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>1.85</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>194.068</v>
+        <v>235.755</v>
       </c>
       <c r="K22" t="n">
-        <v>14.884</v>
+        <v>24.385</v>
       </c>
     </row>
     <row r="23">
@@ -1958,10 +1958,10 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>61047.6</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3225.7</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1970,10 +1970,10 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>111.275</v>
+        <v>111.833</v>
       </c>
       <c r="K23" t="n">
-        <v>8.888</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -1993,7 +1993,7 @@
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>3360.2</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
@@ -2005,7 +2005,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>3.69</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -2025,25 +2025,25 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>61.6</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>88257.8</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>20180.2</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0.085</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>141.68</v>
+        <v>167.98</v>
       </c>
       <c r="K25" t="n">
-        <v>38.227</v>
+        <v>10.585</v>
       </c>
     </row>
     <row r="26">
@@ -2057,28 +2057,28 @@
         <v>61</v>
       </c>
       <c r="D26" t="n">
-        <v>45.6</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>47.3</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>63796.9</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>44014.5</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0.011</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0.043</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>113.1</v>
+        <v>125.774</v>
       </c>
       <c r="K26" t="n">
-        <v>74.193</v>
+        <v>92.019</v>
       </c>
     </row>
     <row r="27">
@@ -2098,10 +2098,10 @@
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>86551</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1876.9</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2110,10 +2110,10 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>168.422</v>
+        <v>199.517</v>
       </c>
       <c r="K27" t="n">
-        <v>4.191</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -2127,28 +2127,28 @@
         <v>64</v>
       </c>
       <c r="D28" t="n">
-        <v>1711.6</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>53329</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>22601.7</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>3.981</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>184.168</v>
+        <v>186.97</v>
       </c>
       <c r="K28" t="n">
-        <v>75.002</v>
+        <v>75.298</v>
       </c>
     </row>
     <row r="29">
@@ -2162,28 +2162,28 @@
         <v>65</v>
       </c>
       <c r="D29" t="n">
-        <v>5685.8</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>1080.1</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>35249.5</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>30976.7</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>23.05</v>
+        <v>25.277</v>
       </c>
       <c r="I29" t="n">
-        <v>3.383</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>131.791</v>
+        <v>193.11</v>
       </c>
       <c r="K29" t="n">
-        <v>122.466</v>
+        <v>60.95</v>
       </c>
     </row>
     <row r="30">
@@ -2197,28 +2197,28 @@
         <v>67</v>
       </c>
       <c r="D30" t="n">
-        <v>1728.6</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>55.7</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>26649.9</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>443.8</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>5.56</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>136.872</v>
+        <v>134.043</v>
       </c>
       <c r="K30" t="n">
-        <v>1.491</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -2232,28 +2232,28 @@
         <v>68</v>
       </c>
       <c r="D31" t="n">
-        <v>931.6</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>52341.2</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>108.2</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>2.463</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>247.767</v>
+        <v>231.916</v>
       </c>
       <c r="K31" t="n">
-        <v>0.361</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -2267,28 +2267,28 @@
         <v>69</v>
       </c>
       <c r="D32" t="n">
-        <v>436.4</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>40585.2</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>4973</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>1.302</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>200.116</v>
+        <v>267.382</v>
       </c>
       <c r="K32" t="n">
-        <v>27.115</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -2308,10 +2308,10 @@
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>41219.1</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>6106</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -2320,10 +2320,10 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>186.394</v>
+        <v>173.853</v>
       </c>
       <c r="K33" t="n">
-        <v>33.208</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -2337,28 +2337,28 @@
         <v>72</v>
       </c>
       <c r="D34" t="n">
-        <v>189.6</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>101</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>9190.8</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>10968.7</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0.23</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0.502</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>32.879</v>
+        <v>57.965</v>
       </c>
       <c r="K34" t="n">
-        <v>38.092</v>
+        <v>29.546</v>
       </c>
     </row>
     <row r="35">
@@ -2378,10 +2378,10 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>1783.1</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>272.9</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -2390,7 +2390,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0.573</v>
+        <v>17.759</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -2410,25 +2410,25 @@
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>55.4</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>12972.1</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>16556.6</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0.49</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>60.604</v>
+        <v>93.407</v>
       </c>
       <c r="K36" t="n">
-        <v>86.017</v>
+        <v>74.283</v>
       </c>
     </row>
     <row r="37">
@@ -2442,19 +2442,19 @@
         <v>74</v>
       </c>
       <c r="D37" t="n">
-        <v>3077.8</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>51.2</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>5.587</v>
+        <v>31.052</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -2477,28 +2477,28 @@
         <v>75</v>
       </c>
       <c r="D38" t="n">
-        <v>31754.3</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>30.1</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>2511.9</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>1160.4</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>133.107</v>
+        <v>145.395</v>
       </c>
       <c r="I38" t="n">
-        <v>0.136</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>11.148</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>4.546</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -2512,28 +2512,28 @@
         <v>76</v>
       </c>
       <c r="D39" t="n">
-        <v>38731.4</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
         <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>1683</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>527.2</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>168.623</v>
+        <v>186.901</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>8.006</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>1.358</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -2547,28 +2547,28 @@
         <v>77</v>
       </c>
       <c r="D40" t="n">
-        <v>22298.4</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>102.9</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>3721.5</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>2830.5</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>72.925</v>
+        <v>98.615</v>
       </c>
       <c r="I40" t="n">
-        <v>0.248</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>10.129</v>
+        <v>30.222</v>
       </c>
       <c r="K40" t="n">
-        <v>7.363</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -2588,10 +2588,10 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>3728.2</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>23882.3</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -2600,10 +2600,10 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>21.112</v>
+        <v>16.516</v>
       </c>
       <c r="K41" t="n">
-        <v>120.836</v>
+        <v>158.622</v>
       </c>
     </row>
     <row r="42">
@@ -2617,28 +2617,28 @@
         <v>80</v>
       </c>
       <c r="D42" t="n">
-        <v>1211.7</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>1470.4</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>6563</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>43804.2</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>7.829</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>6.284</v>
+        <v>24.134</v>
       </c>
       <c r="J42" t="n">
-        <v>26.384</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>168.296</v>
+        <v>195.493</v>
       </c>
     </row>
     <row r="43">
@@ -2658,10 +2658,10 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>314.4</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>3300.4</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -2673,7 +2673,7 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>3.455</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -2687,25 +2687,25 @@
         <v>82</v>
       </c>
       <c r="D44" t="n">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>43051</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0.078</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>110.977</v>
+        <v>110.93</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -2722,25 +2722,25 @@
         <v>83</v>
       </c>
       <c r="D45" t="n">
-        <v>21.2</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
         <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>42637.8</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
         <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>0.031</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>116.757</v>
+        <v>119.072</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -2757,25 +2757,25 @@
         <v>85</v>
       </c>
       <c r="D46" t="n">
-        <v>6763</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>19.6</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>22.759</v>
+        <v>41.955</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>0.061</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -2792,25 +2792,25 @@
         <v>86</v>
       </c>
       <c r="D47" t="n">
-        <v>3674.5</v>
+        <v>0</v>
       </c>
       <c r="E47" t="n">
         <v>0</v>
       </c>
       <c r="F47" t="n">
-        <v>350.3</v>
+        <v>0</v>
       </c>
       <c r="G47" t="n">
         <v>0</v>
       </c>
       <c r="H47" t="n">
-        <v>12.314</v>
+        <v>35.022</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
       <c r="J47" t="n">
-        <v>1.047</v>
+        <v>0</v>
       </c>
       <c r="K47" t="n">
         <v>0</v>
@@ -2827,16 +2827,16 @@
         <v>87</v>
       </c>
       <c r="D48" t="n">
-        <v>323.3</v>
+        <v>0</v>
       </c>
       <c r="E48" t="n">
-        <v>61.8</v>
+        <v>0</v>
       </c>
       <c r="F48" t="n">
-        <v>1198.6</v>
+        <v>0</v>
       </c>
       <c r="G48" t="n">
-        <v>2136.9</v>
+        <v>0</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2845,7 +2845,7 @@
         <v>0</v>
       </c>
       <c r="J48" t="n">
-        <v>0.576</v>
+        <v>0</v>
       </c>
       <c r="K48" t="n">
         <v>0</v>
@@ -2862,28 +2862,28 @@
         <v>89</v>
       </c>
       <c r="D49" t="n">
-        <v>692.5</v>
+        <v>0</v>
       </c>
       <c r="E49" t="n">
         <v>0</v>
       </c>
       <c r="F49" t="n">
-        <v>72191.1</v>
+        <v>0</v>
       </c>
       <c r="G49" t="n">
-        <v>4631.1</v>
+        <v>0</v>
       </c>
       <c r="H49" t="n">
-        <v>2.439</v>
+        <v>0</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
       <c r="J49" t="n">
-        <v>305.374</v>
+        <v>379.438</v>
       </c>
       <c r="K49" t="n">
-        <v>22.016</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50">
@@ -2897,28 +2897,28 @@
         <v>90</v>
       </c>
       <c r="D50" t="n">
-        <v>174.9</v>
+        <v>0</v>
       </c>
       <c r="E50" t="n">
         <v>0</v>
       </c>
       <c r="F50" t="n">
-        <v>69564.7</v>
+        <v>0</v>
       </c>
       <c r="G50" t="n">
-        <v>44.4</v>
+        <v>0</v>
       </c>
       <c r="H50" t="n">
-        <v>0.583</v>
+        <v>0</v>
       </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
       <c r="J50" t="n">
-        <v>275.143</v>
+        <v>264.128</v>
       </c>
       <c r="K50" t="n">
-        <v>0.081</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51">
@@ -2932,25 +2932,25 @@
         <v>91</v>
       </c>
       <c r="D51" t="n">
-        <v>400.9</v>
+        <v>0</v>
       </c>
       <c r="E51" t="n">
         <v>0</v>
       </c>
       <c r="F51" t="n">
-        <v>49074.6</v>
+        <v>0</v>
       </c>
       <c r="G51" t="n">
         <v>0</v>
       </c>
       <c r="H51" t="n">
-        <v>1.568</v>
+        <v>0</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
       <c r="J51" t="n">
-        <v>226.02</v>
+        <v>247.796</v>
       </c>
       <c r="K51" t="n">
         <v>0</v>
@@ -2973,10 +2973,10 @@
         <v>0</v>
       </c>
       <c r="F52" t="n">
-        <v>29794.7</v>
+        <v>0</v>
       </c>
       <c r="G52" t="n">
-        <v>275</v>
+        <v>0</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2985,10 +2985,10 @@
         <v>0</v>
       </c>
       <c r="J52" t="n">
-        <v>142.314</v>
+        <v>94.693</v>
       </c>
       <c r="K52" t="n">
-        <v>0.549</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53">
@@ -3002,28 +3002,28 @@
         <v>94</v>
       </c>
       <c r="D53" t="n">
-        <v>1518.9</v>
+        <v>0</v>
       </c>
       <c r="E53" t="n">
-        <v>2274.3</v>
+        <v>0</v>
       </c>
       <c r="F53" t="n">
-        <v>35034.1</v>
+        <v>0</v>
       </c>
       <c r="G53" t="n">
-        <v>24749.7</v>
+        <v>0</v>
       </c>
       <c r="H53" t="n">
-        <v>6.304</v>
+        <v>4.251</v>
       </c>
       <c r="I53" t="n">
-        <v>7.657</v>
+        <v>0</v>
       </c>
       <c r="J53" t="n">
-        <v>127.418</v>
+        <v>116.494</v>
       </c>
       <c r="K53" t="n">
-        <v>125.184</v>
+        <v>195.446</v>
       </c>
     </row>
     <row r="54">
@@ -3037,28 +3037,28 @@
         <v>95</v>
       </c>
       <c r="D54" t="n">
-        <v>2058.2</v>
+        <v>0</v>
       </c>
       <c r="E54" t="n">
-        <v>273.3</v>
+        <v>0</v>
       </c>
       <c r="F54" t="n">
-        <v>28481.6</v>
+        <v>0</v>
       </c>
       <c r="G54" t="n">
-        <v>3639.5</v>
+        <v>0</v>
       </c>
       <c r="H54" t="n">
-        <v>8.508</v>
+        <v>0</v>
       </c>
       <c r="I54" t="n">
-        <v>0.972</v>
+        <v>0</v>
       </c>
       <c r="J54" t="n">
-        <v>118.644</v>
+        <v>140.899</v>
       </c>
       <c r="K54" t="n">
-        <v>16.633</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55">
@@ -3072,28 +3072,28 @@
         <v>97</v>
       </c>
       <c r="D55" t="n">
-        <v>35907.5</v>
+        <v>0</v>
       </c>
       <c r="E55" t="n">
-        <v>4115.8</v>
+        <v>0</v>
       </c>
       <c r="F55" t="n">
-        <v>13274.7</v>
+        <v>0</v>
       </c>
       <c r="G55" t="n">
-        <v>8670.9</v>
+        <v>0</v>
       </c>
       <c r="H55" t="n">
-        <v>139.185</v>
+        <v>129.484</v>
       </c>
       <c r="I55" t="n">
-        <v>19.444</v>
+        <v>11.553</v>
       </c>
       <c r="J55" t="n">
-        <v>37.982</v>
+        <v>54.567</v>
       </c>
       <c r="K55" t="n">
-        <v>23.993</v>
+        <v>46.094</v>
       </c>
     </row>
     <row r="56">
@@ -3107,28 +3107,28 @@
         <v>99</v>
       </c>
       <c r="D56" t="n">
-        <v>675.4</v>
+        <v>0</v>
       </c>
       <c r="E56" t="n">
-        <v>26.9</v>
+        <v>0</v>
       </c>
       <c r="F56" t="n">
-        <v>1863</v>
+        <v>0</v>
       </c>
       <c r="G56" t="n">
-        <v>14699.2</v>
+        <v>0</v>
       </c>
       <c r="H56" t="n">
-        <v>2.027</v>
+        <v>3.992</v>
       </c>
       <c r="I56" t="n">
-        <v>0.094</v>
+        <v>0</v>
       </c>
       <c r="J56" t="n">
-        <v>8.565</v>
+        <v>6.708</v>
       </c>
       <c r="K56" t="n">
-        <v>66.935</v>
+        <v>86.862</v>
       </c>
     </row>
     <row r="57">
@@ -3142,28 +3142,28 @@
         <v>100</v>
       </c>
       <c r="D57" t="n">
-        <v>121.1</v>
+        <v>0</v>
       </c>
       <c r="E57" t="n">
-        <v>29.5</v>
+        <v>0</v>
       </c>
       <c r="F57" t="n">
-        <v>6870.2</v>
+        <v>0</v>
       </c>
       <c r="G57" t="n">
-        <v>20382.5</v>
+        <v>0</v>
       </c>
       <c r="H57" t="n">
-        <v>0.338</v>
+        <v>0</v>
       </c>
       <c r="I57" t="n">
-        <v>0.206</v>
+        <v>0</v>
       </c>
       <c r="J57" t="n">
-        <v>34.182</v>
+        <v>13.495</v>
       </c>
       <c r="K57" t="n">
-        <v>56.857</v>
+        <v>73.248</v>
       </c>
     </row>
     <row r="58">
@@ -3177,28 +3177,28 @@
         <v>101</v>
       </c>
       <c r="D58" t="n">
-        <v>317.7</v>
+        <v>0</v>
       </c>
       <c r="E58" t="n">
-        <v>29.5</v>
+        <v>0</v>
       </c>
       <c r="F58" t="n">
-        <v>2542.4</v>
+        <v>0</v>
       </c>
       <c r="G58" t="n">
-        <v>13696.6</v>
+        <v>0</v>
       </c>
       <c r="H58" t="n">
-        <v>2.208</v>
+        <v>0</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
       <c r="J58" t="n">
-        <v>11.464</v>
+        <v>15.854</v>
       </c>
       <c r="K58" t="n">
-        <v>55.753</v>
+        <v>55.285</v>
       </c>
     </row>
     <row r="59">
@@ -3212,28 +3212,28 @@
         <v>103</v>
       </c>
       <c r="D59" t="n">
-        <v>128</v>
+        <v>0</v>
       </c>
       <c r="E59" t="n">
         <v>0</v>
       </c>
       <c r="F59" t="n">
-        <v>8666.2</v>
+        <v>0</v>
       </c>
       <c r="G59" t="n">
-        <v>23522.1</v>
+        <v>0</v>
       </c>
       <c r="H59" t="n">
-        <v>1.267</v>
+        <v>0</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
       <c r="J59" t="n">
-        <v>42.851</v>
+        <v>56.827</v>
       </c>
       <c r="K59" t="n">
-        <v>111.052</v>
+        <v>122.116</v>
       </c>
     </row>
     <row r="60">
@@ -3247,28 +3247,28 @@
         <v>104</v>
       </c>
       <c r="D60" t="n">
-        <v>462.4</v>
+        <v>0</v>
       </c>
       <c r="E60" t="n">
         <v>0</v>
       </c>
       <c r="F60" t="n">
-        <v>9787.6</v>
+        <v>0</v>
       </c>
       <c r="G60" t="n">
-        <v>55686.8</v>
+        <v>0</v>
       </c>
       <c r="H60" t="n">
-        <v>1.156</v>
+        <v>0</v>
       </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
       <c r="J60" t="n">
-        <v>41.813</v>
+        <v>56.203</v>
       </c>
       <c r="K60" t="n">
-        <v>206.483</v>
+        <v>231.533</v>
       </c>
     </row>
     <row r="61">
@@ -3288,10 +3288,10 @@
         <v>0</v>
       </c>
       <c r="F61" t="n">
-        <v>73248.8</v>
+        <v>0</v>
       </c>
       <c r="G61" t="n">
-        <v>7589.7</v>
+        <v>0</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -3300,10 +3300,10 @@
         <v>0</v>
       </c>
       <c r="J61" t="n">
-        <v>177.517</v>
+        <v>156.479</v>
       </c>
       <c r="K61" t="n">
-        <v>11.968</v>
+        <v>16.514</v>
       </c>
     </row>
     <row r="62">
@@ -3323,10 +3323,10 @@
         <v>0</v>
       </c>
       <c r="F62" t="n">
-        <v>48968.2</v>
+        <v>0</v>
       </c>
       <c r="G62" t="n">
-        <v>6505.6</v>
+        <v>0</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -3335,10 +3335,10 @@
         <v>0</v>
       </c>
       <c r="J62" t="n">
-        <v>85.269</v>
+        <v>101.186</v>
       </c>
       <c r="K62" t="n">
-        <v>6.739</v>
+        <v>7.234</v>
       </c>
     </row>
     <row r="63">
@@ -3358,10 +3358,10 @@
         <v>0</v>
       </c>
       <c r="F63" t="n">
-        <v>20933.4</v>
+        <v>0</v>
       </c>
       <c r="G63" t="n">
-        <v>73419.4</v>
+        <v>0</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -3370,10 +3370,10 @@
         <v>0</v>
       </c>
       <c r="J63" t="n">
-        <v>37.076</v>
+        <v>28.789</v>
       </c>
       <c r="K63" t="n">
-        <v>124.081</v>
+        <v>129.066</v>
       </c>
     </row>
     <row r="64">
@@ -3387,28 +3387,28 @@
         <v>110</v>
       </c>
       <c r="D64" t="n">
-        <v>419.9</v>
+        <v>0</v>
       </c>
       <c r="E64" t="n">
         <v>0</v>
       </c>
       <c r="F64" t="n">
-        <v>44191.1</v>
+        <v>0</v>
       </c>
       <c r="G64" t="n">
-        <v>2093.4</v>
+        <v>0</v>
       </c>
       <c r="H64" t="n">
-        <v>0.895</v>
+        <v>0</v>
       </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
       <c r="J64" t="n">
-        <v>125.509</v>
+        <v>118.116</v>
       </c>
       <c r="K64" t="n">
-        <v>4.991</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65">
@@ -3422,28 +3422,28 @@
         <v>111</v>
       </c>
       <c r="D65" t="n">
-        <v>1405.6</v>
+        <v>0</v>
       </c>
       <c r="E65" t="n">
-        <v>52.2</v>
+        <v>0</v>
       </c>
       <c r="F65" t="n">
-        <v>33154.9</v>
+        <v>0</v>
       </c>
       <c r="G65" t="n">
-        <v>3201.3</v>
+        <v>0</v>
       </c>
       <c r="H65" t="n">
-        <v>3.879</v>
+        <v>0</v>
       </c>
       <c r="I65" t="n">
-        <v>0.163</v>
+        <v>0</v>
       </c>
       <c r="J65" t="n">
-        <v>143.691</v>
+        <v>151.647</v>
       </c>
       <c r="K65" t="n">
-        <v>13.771</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66">
@@ -3457,28 +3457,28 @@
         <v>112</v>
       </c>
       <c r="D66" t="n">
-        <v>1278.1</v>
+        <v>0</v>
       </c>
       <c r="E66" t="n">
-        <v>1145.1</v>
+        <v>0</v>
       </c>
       <c r="F66" t="n">
-        <v>18148.9</v>
+        <v>0</v>
       </c>
       <c r="G66" t="n">
-        <v>47467.1</v>
+        <v>0</v>
       </c>
       <c r="H66" t="n">
-        <v>3.775</v>
+        <v>0</v>
       </c>
       <c r="I66" t="n">
-        <v>3.526</v>
+        <v>0</v>
       </c>
       <c r="J66" t="n">
-        <v>94.668</v>
+        <v>92.218</v>
       </c>
       <c r="K66" t="n">
-        <v>245.72</v>
+        <v>262.311</v>
       </c>
     </row>
     <row r="67">
@@ -3492,28 +3492,28 @@
         <v>113</v>
       </c>
       <c r="D67" t="n">
-        <v>1960.2</v>
+        <v>0</v>
       </c>
       <c r="E67" t="n">
-        <v>568.9</v>
+        <v>0</v>
       </c>
       <c r="F67" t="n">
-        <v>15897.6</v>
+        <v>0</v>
       </c>
       <c r="G67" t="n">
-        <v>45712.8</v>
+        <v>0</v>
       </c>
       <c r="H67" t="n">
-        <v>8.681</v>
+        <v>0</v>
       </c>
       <c r="I67" t="n">
-        <v>3.196</v>
+        <v>0</v>
       </c>
       <c r="J67" t="n">
-        <v>98.879</v>
+        <v>161.599</v>
       </c>
       <c r="K67" t="n">
-        <v>283.102</v>
+        <v>259.737</v>
       </c>
     </row>
     <row r="68">
@@ -3527,28 +3527,28 @@
         <v>114</v>
       </c>
       <c r="D68" t="n">
-        <v>2887.7</v>
+        <v>0</v>
       </c>
       <c r="E68" t="n">
-        <v>6879.8</v>
+        <v>0</v>
       </c>
       <c r="F68" t="n">
-        <v>1789.8</v>
+        <v>0</v>
       </c>
       <c r="G68" t="n">
-        <v>32349.4</v>
+        <v>0</v>
       </c>
       <c r="H68" t="n">
-        <v>13.152</v>
+        <v>0</v>
       </c>
       <c r="I68" t="n">
-        <v>24.323</v>
+        <v>23.418</v>
       </c>
       <c r="J68" t="n">
-        <v>6.21</v>
+        <v>0</v>
       </c>
       <c r="K68" t="n">
-        <v>125.073</v>
+        <v>159.383</v>
       </c>
     </row>
     <row r="69">
@@ -3562,28 +3562,28 @@
         <v>115</v>
       </c>
       <c r="D69" t="n">
-        <v>161.3</v>
+        <v>0</v>
       </c>
       <c r="E69" t="n">
-        <v>95.2</v>
+        <v>0</v>
       </c>
       <c r="F69" t="n">
-        <v>113690.9</v>
+        <v>0</v>
       </c>
       <c r="G69" t="n">
-        <v>34230.1</v>
+        <v>0</v>
       </c>
       <c r="H69" t="n">
-        <v>0.404</v>
+        <v>0</v>
       </c>
       <c r="I69" t="n">
-        <v>0.338</v>
+        <v>0</v>
       </c>
       <c r="J69" t="n">
-        <v>257.532</v>
+        <v>245.202</v>
       </c>
       <c r="K69" t="n">
-        <v>108.609</v>
+        <v>111.403</v>
       </c>
     </row>
     <row r="70">
@@ -3597,28 +3597,28 @@
         <v>116</v>
       </c>
       <c r="D70" t="n">
-        <v>22952.3</v>
+        <v>0</v>
       </c>
       <c r="E70" t="n">
-        <v>3130</v>
+        <v>0</v>
       </c>
       <c r="F70" t="n">
-        <v>8386.2</v>
+        <v>0</v>
       </c>
       <c r="G70" t="n">
-        <v>1403.3</v>
+        <v>0</v>
       </c>
       <c r="H70" t="n">
-        <v>108.609</v>
+        <v>109.034</v>
       </c>
       <c r="I70" t="n">
-        <v>15.026</v>
+        <v>14.1</v>
       </c>
       <c r="J70" t="n">
-        <v>46.699</v>
+        <v>45.659</v>
       </c>
       <c r="K70" t="n">
-        <v>8.785</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71">
@@ -3638,10 +3638,10 @@
         <v>0</v>
       </c>
       <c r="F71" t="n">
-        <v>16431.4</v>
+        <v>0</v>
       </c>
       <c r="G71" t="n">
-        <v>138383.8</v>
+        <v>0</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -3650,10 +3650,10 @@
         <v>0</v>
       </c>
       <c r="J71" t="n">
-        <v>12.262</v>
+        <v>7.41</v>
       </c>
       <c r="K71" t="n">
-        <v>137.81</v>
+        <v>152.529</v>
       </c>
     </row>
     <row r="72">
@@ -3673,10 +3673,10 @@
         <v>0</v>
       </c>
       <c r="F72" t="n">
-        <v>65620.2</v>
+        <v>0</v>
       </c>
       <c r="G72" t="n">
-        <v>104932.7</v>
+        <v>0</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -3685,10 +3685,10 @@
         <v>0</v>
       </c>
       <c r="J72" t="n">
-        <v>36.847</v>
+        <v>48.796</v>
       </c>
       <c r="K72" t="n">
-        <v>90.644</v>
+        <v>86.991</v>
       </c>
     </row>
     <row r="73">
@@ -3708,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="F73" t="n">
-        <v>100.3</v>
+        <v>0</v>
       </c>
       <c r="G73" t="n">
-        <v>163904.5</v>
+        <v>0</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -3720,10 +3720,10 @@
         <v>0</v>
       </c>
       <c r="J73" t="n">
-        <v>0.007</v>
+        <v>0</v>
       </c>
       <c r="K73" t="n">
-        <v>122.315</v>
+        <v>138.945</v>
       </c>
     </row>
     <row r="74">
@@ -3746,7 +3746,7 @@
         <v>0</v>
       </c>
       <c r="G74" t="n">
-        <v>101956.7</v>
+        <v>0</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -3758,7 +3758,7 @@
         <v>0</v>
       </c>
       <c r="K74" t="n">
-        <v>175.493</v>
+        <v>174.953</v>
       </c>
     </row>
     <row r="75">
@@ -3778,10 +3778,10 @@
         <v>0</v>
       </c>
       <c r="F75" t="n">
-        <v>6018.9</v>
+        <v>0</v>
       </c>
       <c r="G75" t="n">
-        <v>48700.7</v>
+        <v>0</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3790,10 +3790,10 @@
         <v>0</v>
       </c>
       <c r="J75" t="n">
-        <v>24.976</v>
+        <v>20.597</v>
       </c>
       <c r="K75" t="n">
-        <v>97.361</v>
+        <v>97.616</v>
       </c>
     </row>
     <row r="76">
@@ -3813,10 +3813,10 @@
         <v>0</v>
       </c>
       <c r="F76" t="n">
-        <v>28670</v>
+        <v>0</v>
       </c>
       <c r="G76" t="n">
-        <v>28446.7</v>
+        <v>0</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3825,10 +3825,10 @@
         <v>0</v>
       </c>
       <c r="J76" t="n">
-        <v>85.084</v>
+        <v>83.924</v>
       </c>
       <c r="K76" t="n">
-        <v>115.045</v>
+        <v>156.364</v>
       </c>
     </row>
     <row r="77">
@@ -3842,28 +3842,28 @@
         <v>124</v>
       </c>
       <c r="D77" t="n">
-        <v>29.1</v>
+        <v>0</v>
       </c>
       <c r="E77" t="n">
         <v>0</v>
       </c>
       <c r="F77" t="n">
-        <v>44698.1</v>
+        <v>0</v>
       </c>
       <c r="G77" t="n">
-        <v>17503.9</v>
+        <v>0</v>
       </c>
       <c r="H77" t="n">
-        <v>0.073</v>
+        <v>0</v>
       </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
       <c r="J77" t="n">
-        <v>167.799</v>
+        <v>154.79</v>
       </c>
       <c r="K77" t="n">
-        <v>79.768</v>
+        <v>81.362</v>
       </c>
     </row>
     <row r="78">
@@ -3877,28 +3877,28 @@
         <v>126</v>
       </c>
       <c r="D78" t="n">
-        <v>351.1</v>
+        <v>0</v>
       </c>
       <c r="E78" t="n">
         <v>0</v>
       </c>
       <c r="F78" t="n">
-        <v>38047</v>
+        <v>0</v>
       </c>
       <c r="G78" t="n">
-        <v>2147.2</v>
+        <v>0</v>
       </c>
       <c r="H78" t="n">
-        <v>1.033</v>
+        <v>0</v>
       </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
       <c r="J78" t="n">
-        <v>126.534</v>
+        <v>154.403</v>
       </c>
       <c r="K78" t="n">
-        <v>8.01</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79">
@@ -3912,28 +3912,28 @@
         <v>128</v>
       </c>
       <c r="D79" t="n">
-        <v>586.1</v>
+        <v>0</v>
       </c>
       <c r="E79" t="n">
-        <v>8379.5</v>
+        <v>0</v>
       </c>
       <c r="F79" t="n">
-        <v>8614.7</v>
+        <v>0</v>
       </c>
       <c r="G79" t="n">
-        <v>50788.5</v>
+        <v>0</v>
       </c>
       <c r="H79" t="n">
-        <v>1.922</v>
+        <v>0</v>
       </c>
       <c r="I79" t="n">
-        <v>35.777</v>
+        <v>0</v>
       </c>
       <c r="J79" t="n">
-        <v>53.26</v>
+        <v>0</v>
       </c>
       <c r="K79" t="n">
-        <v>276.684</v>
+        <v>316.475</v>
       </c>
     </row>
     <row r="80">
@@ -3947,28 +3947,28 @@
         <v>129</v>
       </c>
       <c r="D80" t="n">
-        <v>2769.6</v>
+        <v>0</v>
       </c>
       <c r="E80" t="n">
-        <v>4781.7</v>
+        <v>0</v>
       </c>
       <c r="F80" t="n">
-        <v>9090.9</v>
+        <v>0</v>
       </c>
       <c r="G80" t="n">
-        <v>86297.7</v>
+        <v>0</v>
       </c>
       <c r="H80" t="n">
-        <v>12.604</v>
+        <v>0</v>
       </c>
       <c r="I80" t="n">
-        <v>17.989</v>
+        <v>0</v>
       </c>
       <c r="J80" t="n">
-        <v>41.118</v>
+        <v>23.275</v>
       </c>
       <c r="K80" t="n">
-        <v>366.594</v>
+        <v>422.005</v>
       </c>
     </row>
     <row r="81">
@@ -3982,28 +3982,28 @@
         <v>130</v>
       </c>
       <c r="D81" t="n">
-        <v>115.9</v>
+        <v>0</v>
       </c>
       <c r="E81" t="n">
         <v>0</v>
       </c>
       <c r="F81" t="n">
-        <v>785.1</v>
+        <v>0</v>
       </c>
       <c r="G81" t="n">
-        <v>3040.7</v>
+        <v>0</v>
       </c>
       <c r="H81" t="n">
-        <v>0.017</v>
+        <v>0</v>
       </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
       <c r="J81" t="n">
-        <v>0.337</v>
+        <v>0</v>
       </c>
       <c r="K81" t="n">
-        <v>2.04</v>
+        <v>13.083</v>
       </c>
     </row>
     <row r="82">
@@ -4017,28 +4017,28 @@
         <v>131</v>
       </c>
       <c r="D82" t="n">
-        <v>17508.5</v>
+        <v>0</v>
       </c>
       <c r="E82" t="n">
-        <v>1805</v>
+        <v>0</v>
       </c>
       <c r="F82" t="n">
-        <v>13602.2</v>
+        <v>0</v>
       </c>
       <c r="G82" t="n">
-        <v>5668.9</v>
+        <v>0</v>
       </c>
       <c r="H82" t="n">
-        <v>14.818</v>
+        <v>61.535</v>
       </c>
       <c r="I82" t="n">
-        <v>1.931</v>
+        <v>11.777</v>
       </c>
       <c r="J82" t="n">
-        <v>17.149</v>
+        <v>21.465</v>
       </c>
       <c r="K82" t="n">
-        <v>5.594</v>
+        <v>55.25</v>
       </c>
     </row>
     <row r="83">
@@ -4052,28 +4052,28 @@
         <v>133</v>
       </c>
       <c r="D83" t="n">
-        <v>52.5</v>
+        <v>0</v>
       </c>
       <c r="E83" t="n">
         <v>0</v>
       </c>
       <c r="F83" t="n">
-        <v>60750.4</v>
+        <v>0</v>
       </c>
       <c r="G83" t="n">
-        <v>128.7</v>
+        <v>0</v>
       </c>
       <c r="H83" t="n">
-        <v>0.09</v>
+        <v>0</v>
       </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
       <c r="J83" t="n">
-        <v>171.335</v>
+        <v>171.445</v>
       </c>
       <c r="K83" t="n">
-        <v>0.514</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84">
@@ -4093,10 +4093,10 @@
         <v>0</v>
       </c>
       <c r="F84" t="n">
-        <v>87127.1</v>
+        <v>0</v>
       </c>
       <c r="G84" t="n">
-        <v>1046.3</v>
+        <v>0</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -4105,10 +4105,10 @@
         <v>0</v>
       </c>
       <c r="J84" t="n">
-        <v>279.765</v>
+        <v>288.986</v>
       </c>
       <c r="K84" t="n">
-        <v>2.34</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85">
@@ -4122,28 +4122,28 @@
         <v>135</v>
       </c>
       <c r="D85" t="n">
-        <v>228.3</v>
+        <v>0</v>
       </c>
       <c r="E85" t="n">
         <v>0</v>
       </c>
       <c r="F85" t="n">
-        <v>43627.3</v>
+        <v>0</v>
       </c>
       <c r="G85" t="n">
-        <v>4493</v>
+        <v>0</v>
       </c>
       <c r="H85" t="n">
-        <v>0.618</v>
+        <v>0</v>
       </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
       <c r="J85" t="n">
-        <v>128.809</v>
+        <v>176.593</v>
       </c>
       <c r="K85" t="n">
-        <v>13.263</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86">
@@ -4163,7 +4163,7 @@
         <v>0</v>
       </c>
       <c r="F86" t="n">
-        <v>2677.1</v>
+        <v>0</v>
       </c>
       <c r="G86" t="n">
         <v>0</v>
@@ -4175,7 +4175,7 @@
         <v>0</v>
       </c>
       <c r="J86" t="n">
-        <v>1.68</v>
+        <v>30.966</v>
       </c>
       <c r="K86" t="n">
         <v>0</v>
@@ -4198,7 +4198,7 @@
         <v>0</v>
       </c>
       <c r="F87" t="n">
-        <v>96365.1</v>
+        <v>0</v>
       </c>
       <c r="G87" t="n">
         <v>0</v>
@@ -4210,7 +4210,7 @@
         <v>0</v>
       </c>
       <c r="J87" t="n">
-        <v>219.021</v>
+        <v>227.564</v>
       </c>
       <c r="K87" t="n">
         <v>0</v>
@@ -4233,10 +4233,10 @@
         <v>0</v>
       </c>
       <c r="F88" t="n">
-        <v>72495.1</v>
+        <v>0</v>
       </c>
       <c r="G88" t="n">
-        <v>614.2</v>
+        <v>0</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -4245,10 +4245,10 @@
         <v>0</v>
       </c>
       <c r="J88" t="n">
-        <v>112.374</v>
+        <v>141.704</v>
       </c>
       <c r="K88" t="n">
-        <v>1.577</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89">
@@ -4268,10 +4268,10 @@
         <v>0</v>
       </c>
       <c r="F89" t="n">
-        <v>45878.2</v>
+        <v>0</v>
       </c>
       <c r="G89" t="n">
-        <v>9798.3</v>
+        <v>0</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -4280,10 +4280,10 @@
         <v>0</v>
       </c>
       <c r="J89" t="n">
-        <v>132.141</v>
+        <v>188.063</v>
       </c>
       <c r="K89" t="n">
-        <v>31.452</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90">
@@ -4300,25 +4300,25 @@
         <v>0</v>
       </c>
       <c r="E90" t="n">
-        <v>35.3</v>
+        <v>0</v>
       </c>
       <c r="F90" t="n">
-        <v>25314.5</v>
+        <v>0</v>
       </c>
       <c r="G90" t="n">
-        <v>28047</v>
+        <v>0</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
       </c>
       <c r="I90" t="n">
-        <v>0.101</v>
+        <v>0</v>
       </c>
       <c r="J90" t="n">
-        <v>62.922</v>
+        <v>43.815</v>
       </c>
       <c r="K90" t="n">
-        <v>104.58</v>
+        <v>121.385</v>
       </c>
     </row>
     <row r="91">
@@ -4332,28 +4332,28 @@
         <v>141</v>
       </c>
       <c r="D91" t="n">
-        <v>598.9</v>
+        <v>0</v>
       </c>
       <c r="E91" t="n">
-        <v>133.4</v>
+        <v>0</v>
       </c>
       <c r="F91" t="n">
-        <v>69888.6</v>
+        <v>0</v>
       </c>
       <c r="G91" t="n">
-        <v>27652.6</v>
+        <v>0</v>
       </c>
       <c r="H91" t="n">
-        <v>0.548</v>
+        <v>0</v>
       </c>
       <c r="I91" t="n">
-        <v>0.337</v>
+        <v>0</v>
       </c>
       <c r="J91" t="n">
-        <v>77.601</v>
+        <v>72.394</v>
       </c>
       <c r="K91" t="n">
-        <v>104.057</v>
+        <v>110.242</v>
       </c>
     </row>
     <row r="92">
@@ -4367,28 +4367,28 @@
         <v>143</v>
       </c>
       <c r="D92" t="n">
-        <v>330.2</v>
+        <v>0</v>
       </c>
       <c r="E92" t="n">
         <v>0</v>
       </c>
       <c r="F92" t="n">
-        <v>37977</v>
+        <v>0</v>
       </c>
       <c r="G92" t="n">
-        <v>1762</v>
+        <v>0</v>
       </c>
       <c r="H92" t="n">
-        <v>1.093</v>
+        <v>0</v>
       </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
       <c r="J92" t="n">
-        <v>124.592</v>
+        <v>129.438</v>
       </c>
       <c r="K92" t="n">
-        <v>3.116</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93">
@@ -4402,28 +4402,28 @@
         <v>144</v>
       </c>
       <c r="D93" t="n">
-        <v>5218.1</v>
+        <v>0</v>
       </c>
       <c r="E93" t="n">
-        <v>685.9</v>
+        <v>0</v>
       </c>
       <c r="F93" t="n">
-        <v>89537.5</v>
+        <v>0</v>
       </c>
       <c r="G93" t="n">
-        <v>37507.4</v>
+        <v>0</v>
       </c>
       <c r="H93" t="n">
-        <v>14.081</v>
+        <v>0</v>
       </c>
       <c r="I93" t="n">
-        <v>1.426</v>
+        <v>0</v>
       </c>
       <c r="J93" t="n">
-        <v>270.025</v>
+        <v>308.523</v>
       </c>
       <c r="K93" t="n">
-        <v>113.389</v>
+        <v>140.814</v>
       </c>
     </row>
     <row r="94">
@@ -4437,28 +4437,28 @@
         <v>145</v>
       </c>
       <c r="D94" t="n">
-        <v>447.6</v>
+        <v>0</v>
       </c>
       <c r="E94" t="n">
-        <v>1116.1</v>
+        <v>0</v>
       </c>
       <c r="F94" t="n">
-        <v>39751.1</v>
+        <v>0</v>
       </c>
       <c r="G94" t="n">
-        <v>6777.9</v>
+        <v>0</v>
       </c>
       <c r="H94" t="n">
-        <v>1.164</v>
+        <v>0</v>
       </c>
       <c r="I94" t="n">
-        <v>1.973</v>
+        <v>0</v>
       </c>
       <c r="J94" t="n">
-        <v>127.251</v>
+        <v>148.857</v>
       </c>
       <c r="K94" t="n">
-        <v>14.445</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95">
@@ -4478,10 +4478,10 @@
         <v>0</v>
       </c>
       <c r="F95" t="n">
-        <v>3261.9</v>
+        <v>0</v>
       </c>
       <c r="G95" t="n">
-        <v>159.6</v>
+        <v>0</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -4490,10 +4490,10 @@
         <v>0</v>
       </c>
       <c r="J95" t="n">
-        <v>4.284</v>
+        <v>0</v>
       </c>
       <c r="K95" t="n">
-        <v>0.513</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96">
@@ -4507,28 +4507,28 @@
         <v>147</v>
       </c>
       <c r="D96" t="n">
-        <v>1552</v>
+        <v>0</v>
       </c>
       <c r="E96" t="n">
         <v>0</v>
       </c>
       <c r="F96" t="n">
-        <v>40089.2</v>
+        <v>0</v>
       </c>
       <c r="G96" t="n">
-        <v>1930.6</v>
+        <v>0</v>
       </c>
       <c r="H96" t="n">
-        <v>3.6</v>
+        <v>10.226</v>
       </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
       <c r="J96" t="n">
-        <v>78.093</v>
+        <v>93.668</v>
       </c>
       <c r="K96" t="n">
-        <v>2.03</v>
+        <v>1.32</v>
       </c>
     </row>
     <row r="97">
@@ -4542,28 +4542,28 @@
         <v>148</v>
       </c>
       <c r="D97" t="n">
-        <v>683.6</v>
+        <v>0</v>
       </c>
       <c r="E97" t="n">
-        <v>179.1</v>
+        <v>0</v>
       </c>
       <c r="F97" t="n">
-        <v>1151.5</v>
+        <v>0</v>
       </c>
       <c r="G97" t="n">
-        <v>28726.7</v>
+        <v>0</v>
       </c>
       <c r="H97" t="n">
-        <v>2.936</v>
+        <v>0</v>
       </c>
       <c r="I97" t="n">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="J97" t="n">
-        <v>5.306</v>
+        <v>0</v>
       </c>
       <c r="K97" t="n">
-        <v>96.086</v>
+        <v>94.842</v>
       </c>
     </row>
     <row r="98">
@@ -4577,28 +4577,28 @@
         <v>149</v>
       </c>
       <c r="D98" t="n">
-        <v>603.8</v>
+        <v>0</v>
       </c>
       <c r="E98" t="n">
-        <v>23.3</v>
+        <v>0</v>
       </c>
       <c r="F98" t="n">
-        <v>72046.3</v>
+        <v>0</v>
       </c>
       <c r="G98" t="n">
-        <v>1697.8</v>
+        <v>0</v>
       </c>
       <c r="H98" t="n">
-        <v>1.377</v>
+        <v>0</v>
       </c>
       <c r="I98" t="n">
-        <v>0.088</v>
+        <v>0</v>
       </c>
       <c r="J98" t="n">
-        <v>141.263</v>
+        <v>119.488</v>
       </c>
       <c r="K98" t="n">
-        <v>3.544</v>
+        <v>4.048</v>
       </c>
     </row>
     <row r="99">
@@ -4618,10 +4618,10 @@
         <v>0</v>
       </c>
       <c r="F99" t="n">
-        <v>105770.1</v>
+        <v>0</v>
       </c>
       <c r="G99" t="n">
-        <v>8857.5</v>
+        <v>0</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -4630,10 +4630,10 @@
         <v>0</v>
       </c>
       <c r="J99" t="n">
-        <v>221.537</v>
+        <v>228.507</v>
       </c>
       <c r="K99" t="n">
-        <v>18.976</v>
+        <v>17.688</v>
       </c>
     </row>
     <row r="100">
@@ -4647,28 +4647,28 @@
         <v>152</v>
       </c>
       <c r="D100" t="n">
-        <v>3202</v>
+        <v>0</v>
       </c>
       <c r="E100" t="n">
-        <v>1588.8</v>
+        <v>0</v>
       </c>
       <c r="F100" t="n">
-        <v>56645.5</v>
+        <v>0</v>
       </c>
       <c r="G100" t="n">
-        <v>6584.6</v>
+        <v>0</v>
       </c>
       <c r="H100" t="n">
-        <v>19.305</v>
+        <v>0</v>
       </c>
       <c r="I100" t="n">
-        <v>12.775</v>
+        <v>0</v>
       </c>
       <c r="J100" t="n">
-        <v>310.317</v>
+        <v>385.112</v>
       </c>
       <c r="K100" t="n">
-        <v>44.999</v>
+        <v>30.823</v>
       </c>
     </row>
     <row r="101">
@@ -4682,28 +4682,28 @@
         <v>154</v>
       </c>
       <c r="D101" t="n">
-        <v>593.5</v>
+        <v>0</v>
       </c>
       <c r="E101" t="n">
         <v>0</v>
       </c>
       <c r="F101" t="n">
-        <v>30396.1</v>
+        <v>0</v>
       </c>
       <c r="G101" t="n">
-        <v>3940.3</v>
+        <v>0</v>
       </c>
       <c r="H101" t="n">
-        <v>3.801</v>
+        <v>0</v>
       </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
       <c r="J101" t="n">
-        <v>162.639</v>
+        <v>138.701</v>
       </c>
       <c r="K101" t="n">
-        <v>21.933</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102">
@@ -4717,28 +4717,28 @@
         <v>155</v>
       </c>
       <c r="D102" t="n">
-        <v>73.1</v>
+        <v>0</v>
       </c>
       <c r="E102" t="n">
         <v>0</v>
       </c>
       <c r="F102" t="n">
-        <v>19828.1</v>
+        <v>0</v>
       </c>
       <c r="G102" t="n">
-        <v>14372.3</v>
+        <v>0</v>
       </c>
       <c r="H102" t="n">
-        <v>0.629</v>
+        <v>0</v>
       </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
       <c r="J102" t="n">
-        <v>106.655</v>
+        <v>138.132</v>
       </c>
       <c r="K102" t="n">
-        <v>56.816</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103">
@@ -4752,28 +4752,28 @@
         <v>156</v>
       </c>
       <c r="D103" t="n">
-        <v>162.6</v>
+        <v>0</v>
       </c>
       <c r="E103" t="n">
         <v>0</v>
       </c>
       <c r="F103" t="n">
-        <v>8310.5</v>
+        <v>0</v>
       </c>
       <c r="G103" t="n">
-        <v>2244.8</v>
+        <v>0</v>
       </c>
       <c r="H103" t="n">
-        <v>1.807</v>
+        <v>0</v>
       </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
       <c r="J103" t="n">
-        <v>28.885</v>
+        <v>75.834</v>
       </c>
       <c r="K103" t="n">
-        <v>1.255</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104">
@@ -4793,10 +4793,10 @@
         <v>0</v>
       </c>
       <c r="F104" t="n">
-        <v>942.2</v>
+        <v>0</v>
       </c>
       <c r="G104" t="n">
-        <v>840</v>
+        <v>0</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4822,28 +4822,28 @@
         <v>158</v>
       </c>
       <c r="D105" t="n">
-        <v>4048</v>
+        <v>0</v>
       </c>
       <c r="E105" t="n">
-        <v>582.6</v>
+        <v>0</v>
       </c>
       <c r="F105" t="n">
-        <v>48111.6</v>
+        <v>0</v>
       </c>
       <c r="G105" t="n">
-        <v>15839.1</v>
+        <v>0</v>
       </c>
       <c r="H105" t="n">
-        <v>13.339</v>
+        <v>8.965</v>
       </c>
       <c r="I105" t="n">
-        <v>0.751</v>
+        <v>0</v>
       </c>
       <c r="J105" t="n">
-        <v>168.856</v>
+        <v>251.526</v>
       </c>
       <c r="K105" t="n">
-        <v>44.817</v>
+        <v>24.279</v>
       </c>
     </row>
     <row r="106">
@@ -4857,28 +4857,28 @@
         <v>159</v>
       </c>
       <c r="D106" t="n">
-        <v>11113.6</v>
+        <v>0</v>
       </c>
       <c r="E106" t="n">
-        <v>190.5</v>
+        <v>0</v>
       </c>
       <c r="F106" t="n">
-        <v>36664.6</v>
+        <v>0</v>
       </c>
       <c r="G106" t="n">
-        <v>772.7</v>
+        <v>0</v>
       </c>
       <c r="H106" t="n">
-        <v>47.205</v>
+        <v>54.926</v>
       </c>
       <c r="I106" t="n">
-        <v>0.705</v>
+        <v>0</v>
       </c>
       <c r="J106" t="n">
-        <v>167.116</v>
+        <v>166.074</v>
       </c>
       <c r="K106" t="n">
-        <v>2.37</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107">
@@ -4892,28 +4892,28 @@
         <v>160</v>
       </c>
       <c r="D107" t="n">
-        <v>22593.6</v>
+        <v>0</v>
       </c>
       <c r="E107" t="n">
-        <v>164</v>
+        <v>0</v>
       </c>
       <c r="F107" t="n">
-        <v>30359</v>
+        <v>0</v>
       </c>
       <c r="G107" t="n">
-        <v>6043.1</v>
+        <v>0</v>
       </c>
       <c r="H107" t="n">
-        <v>121.737</v>
+        <v>130.798</v>
       </c>
       <c r="I107" t="n">
-        <v>0.136</v>
+        <v>0</v>
       </c>
       <c r="J107" t="n">
-        <v>120.709</v>
+        <v>90.465</v>
       </c>
       <c r="K107" t="n">
-        <v>14.046</v>
+        <v>10.3</v>
       </c>
     </row>
     <row r="108">
@@ -4927,28 +4927,28 @@
         <v>161</v>
       </c>
       <c r="D108" t="n">
-        <v>6415.6</v>
+        <v>0</v>
       </c>
       <c r="E108" t="n">
-        <v>194.2</v>
+        <v>0</v>
       </c>
       <c r="F108" t="n">
-        <v>23801.9</v>
+        <v>0</v>
       </c>
       <c r="G108" t="n">
-        <v>23734.3</v>
+        <v>0</v>
       </c>
       <c r="H108" t="n">
-        <v>16.079</v>
+        <v>0</v>
       </c>
       <c r="I108" t="n">
-        <v>0.855</v>
+        <v>0</v>
       </c>
       <c r="J108" t="n">
-        <v>87.739</v>
+        <v>129.85</v>
       </c>
       <c r="K108" t="n">
-        <v>67.773</v>
+        <v>63.973</v>
       </c>
     </row>
     <row r="109">
@@ -4962,28 +4962,28 @@
         <v>162</v>
       </c>
       <c r="D109" t="n">
-        <v>6837.7</v>
+        <v>0</v>
       </c>
       <c r="E109" t="n">
-        <v>1094.3</v>
+        <v>0</v>
       </c>
       <c r="F109" t="n">
-        <v>46014.8</v>
+        <v>0</v>
       </c>
       <c r="G109" t="n">
-        <v>8099.8</v>
+        <v>0</v>
       </c>
       <c r="H109" t="n">
-        <v>17.11</v>
+        <v>0</v>
       </c>
       <c r="I109" t="n">
-        <v>2.893</v>
+        <v>0</v>
       </c>
       <c r="J109" t="n">
-        <v>140.508</v>
+        <v>165.532</v>
       </c>
       <c r="K109" t="n">
-        <v>19.29</v>
+        <v>7.846</v>
       </c>
     </row>
     <row r="110">
@@ -4997,25 +4997,25 @@
         <v>157</v>
       </c>
       <c r="D110" t="n">
-        <v>658.6</v>
+        <v>0</v>
       </c>
       <c r="E110" t="n">
         <v>0</v>
       </c>
       <c r="F110" t="n">
-        <v>1548.4</v>
+        <v>0</v>
       </c>
       <c r="G110" t="n">
-        <v>1213.5</v>
+        <v>0</v>
       </c>
       <c r="H110" t="n">
-        <v>1.772</v>
+        <v>0</v>
       </c>
       <c r="I110" t="n">
         <v>0</v>
       </c>
       <c r="J110" t="n">
-        <v>0</v>
+        <v>23.251</v>
       </c>
       <c r="K110" t="n">
         <v>0</v>
@@ -5032,28 +5032,28 @@
         <v>163</v>
       </c>
       <c r="D111" t="n">
-        <v>10961.4</v>
+        <v>0</v>
       </c>
       <c r="E111" t="n">
-        <v>499.2</v>
+        <v>0</v>
       </c>
       <c r="F111" t="n">
-        <v>41386</v>
+        <v>0</v>
       </c>
       <c r="G111" t="n">
-        <v>41979.7</v>
+        <v>0</v>
       </c>
       <c r="H111" t="n">
-        <v>16.587</v>
+        <v>7.577</v>
       </c>
       <c r="I111" t="n">
-        <v>0.639</v>
+        <v>0</v>
       </c>
       <c r="J111" t="n">
-        <v>76.782</v>
+        <v>95.573</v>
       </c>
       <c r="K111" t="n">
-        <v>74.813</v>
+        <v>74.289</v>
       </c>
     </row>
     <row r="112">
@@ -5067,25 +5067,25 @@
         <v>164</v>
       </c>
       <c r="D112" t="n">
-        <v>28829.4</v>
+        <v>0</v>
       </c>
       <c r="E112" t="n">
-        <v>102</v>
+        <v>0</v>
       </c>
       <c r="F112" t="n">
-        <v>7149.2</v>
+        <v>0</v>
       </c>
       <c r="G112" t="n">
         <v>0</v>
       </c>
       <c r="H112" t="n">
-        <v>120.415</v>
+        <v>136.385</v>
       </c>
       <c r="I112" t="n">
         <v>0</v>
       </c>
       <c r="J112" t="n">
-        <v>31.214</v>
+        <v>22.009</v>
       </c>
       <c r="K112" t="n">
         <v>0</v>
@@ -5108,10 +5108,10 @@
         <v>0</v>
       </c>
       <c r="F113" t="n">
-        <v>2261.8</v>
+        <v>0</v>
       </c>
       <c r="G113" t="n">
-        <v>129924.9</v>
+        <v>0</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -5120,10 +5120,10 @@
         <v>0</v>
       </c>
       <c r="J113" t="n">
-        <v>4.418</v>
+        <v>3.24</v>
       </c>
       <c r="K113" t="n">
-        <v>137.276</v>
+        <v>132.081</v>
       </c>
     </row>
     <row r="114">
@@ -5137,28 +5137,28 @@
         <v>166</v>
       </c>
       <c r="D114" t="n">
-        <v>77.1</v>
+        <v>0</v>
       </c>
       <c r="E114" t="n">
-        <v>74.9</v>
+        <v>0</v>
       </c>
       <c r="F114" t="n">
-        <v>35.4</v>
+        <v>0</v>
       </c>
       <c r="G114" t="n">
-        <v>84965.7</v>
+        <v>0</v>
       </c>
       <c r="H114" t="n">
-        <v>0.08</v>
+        <v>0</v>
       </c>
       <c r="I114" t="n">
-        <v>0.049</v>
+        <v>0</v>
       </c>
       <c r="J114" t="n">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="K114" t="n">
-        <v>78.982</v>
+        <v>76.453</v>
       </c>
     </row>
     <row r="115">
@@ -5181,7 +5181,7 @@
         <v>0</v>
       </c>
       <c r="G115" t="n">
-        <v>431.5</v>
+        <v>0</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -5193,7 +5193,7 @@
         <v>0</v>
       </c>
       <c r="K115" t="n">
-        <v>0</v>
+        <v>12.118</v>
       </c>
     </row>
     <row r="116">
@@ -5213,10 +5213,10 @@
         <v>0</v>
       </c>
       <c r="F116" t="n">
-        <v>6133.2</v>
+        <v>0</v>
       </c>
       <c r="G116" t="n">
-        <v>24336.9</v>
+        <v>0</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -5225,10 +5225,10 @@
         <v>0</v>
       </c>
       <c r="J116" t="n">
-        <v>4.629</v>
+        <v>9.536</v>
       </c>
       <c r="K116" t="n">
-        <v>26.678</v>
+        <v>32.472</v>
       </c>
     </row>
     <row r="117">
@@ -5248,10 +5248,10 @@
         <v>0</v>
       </c>
       <c r="F117" t="n">
-        <v>16552.9</v>
+        <v>0</v>
       </c>
       <c r="G117" t="n">
-        <v>21377.9</v>
+        <v>0</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -5260,10 +5260,10 @@
         <v>0</v>
       </c>
       <c r="J117" t="n">
-        <v>21.863</v>
+        <v>43.496</v>
       </c>
       <c r="K117" t="n">
-        <v>34.989</v>
+        <v>22.902</v>
       </c>
     </row>
     <row r="118">
@@ -5277,28 +5277,28 @@
         <v>171</v>
       </c>
       <c r="D118" t="n">
-        <v>876</v>
+        <v>0</v>
       </c>
       <c r="E118" t="n">
-        <v>439.1</v>
+        <v>0</v>
       </c>
       <c r="F118" t="n">
-        <v>16866.3</v>
+        <v>0</v>
       </c>
       <c r="G118" t="n">
-        <v>9185.5</v>
+        <v>0</v>
       </c>
       <c r="H118" t="n">
-        <v>1.835</v>
+        <v>0</v>
       </c>
       <c r="I118" t="n">
-        <v>0.884</v>
+        <v>0</v>
       </c>
       <c r="J118" t="n">
-        <v>54.866</v>
+        <v>64.138</v>
       </c>
       <c r="K118" t="n">
-        <v>21.519</v>
+        <v>16.2</v>
       </c>
     </row>
     <row r="119">
@@ -5312,28 +5312,28 @@
         <v>172</v>
       </c>
       <c r="D119" t="n">
-        <v>1795.8</v>
+        <v>0</v>
       </c>
       <c r="E119" t="n">
-        <v>1315.9</v>
+        <v>0</v>
       </c>
       <c r="F119" t="n">
-        <v>50354.6</v>
+        <v>0</v>
       </c>
       <c r="G119" t="n">
-        <v>21026.1</v>
+        <v>0</v>
       </c>
       <c r="H119" t="n">
-        <v>3.187</v>
+        <v>0</v>
       </c>
       <c r="I119" t="n">
-        <v>1.63</v>
+        <v>0</v>
       </c>
       <c r="J119" t="n">
-        <v>97.152</v>
+        <v>125.651</v>
       </c>
       <c r="K119" t="n">
-        <v>43.06</v>
+        <v>20.767</v>
       </c>
     </row>
     <row r="120">
@@ -5347,28 +5347,28 @@
         <v>173</v>
       </c>
       <c r="D120" t="n">
-        <v>6048.2</v>
+        <v>0</v>
       </c>
       <c r="E120" t="n">
-        <v>6500.7</v>
+        <v>0</v>
       </c>
       <c r="F120" t="n">
-        <v>26043.3</v>
+        <v>0</v>
       </c>
       <c r="G120" t="n">
-        <v>29241.6</v>
+        <v>0</v>
       </c>
       <c r="H120" t="n">
-        <v>17.34</v>
+        <v>10.733</v>
       </c>
       <c r="I120" t="n">
-        <v>18.923</v>
+        <v>0</v>
       </c>
       <c r="J120" t="n">
-        <v>84.547</v>
+        <v>106.468</v>
       </c>
       <c r="K120" t="n">
-        <v>97.474</v>
+        <v>85.529</v>
       </c>
     </row>
     <row r="121">
@@ -5382,28 +5382,28 @@
         <v>175</v>
       </c>
       <c r="D121" t="n">
-        <v>369.8</v>
+        <v>0</v>
       </c>
       <c r="E121" t="n">
-        <v>424.6</v>
+        <v>0</v>
       </c>
       <c r="F121" t="n">
-        <v>5088.1</v>
+        <v>0</v>
       </c>
       <c r="G121" t="n">
-        <v>17183.9</v>
+        <v>0</v>
       </c>
       <c r="H121" t="n">
-        <v>1.486</v>
+        <v>0</v>
       </c>
       <c r="I121" t="n">
-        <v>1.419</v>
+        <v>0</v>
       </c>
       <c r="J121" t="n">
-        <v>17.521</v>
+        <v>48.013</v>
       </c>
       <c r="K121" t="n">
-        <v>58.71</v>
+        <v>52.965</v>
       </c>
     </row>
     <row r="122">
@@ -5417,28 +5417,28 @@
         <v>176</v>
       </c>
       <c r="D122" t="n">
-        <v>205.5</v>
+        <v>0</v>
       </c>
       <c r="E122" t="n">
-        <v>4180.4</v>
+        <v>0</v>
       </c>
       <c r="F122" t="n">
-        <v>19932.5</v>
+        <v>0</v>
       </c>
       <c r="G122" t="n">
-        <v>82217.8</v>
+        <v>0</v>
       </c>
       <c r="H122" t="n">
-        <v>0.972</v>
+        <v>0</v>
       </c>
       <c r="I122" t="n">
-        <v>9.068</v>
+        <v>0</v>
       </c>
       <c r="J122" t="n">
-        <v>72.258</v>
+        <v>37.035</v>
       </c>
       <c r="K122" t="n">
-        <v>311.41</v>
+        <v>383.44</v>
       </c>
     </row>
     <row r="123">
@@ -5452,28 +5452,28 @@
         <v>177</v>
       </c>
       <c r="D123" t="n">
-        <v>247.2</v>
+        <v>0</v>
       </c>
       <c r="E123" t="n">
-        <v>823</v>
+        <v>0</v>
       </c>
       <c r="F123" t="n">
-        <v>33507.3</v>
+        <v>0</v>
       </c>
       <c r="G123" t="n">
-        <v>48009.9</v>
+        <v>0</v>
       </c>
       <c r="H123" t="n">
-        <v>0.752</v>
+        <v>0</v>
       </c>
       <c r="I123" t="n">
-        <v>2.464</v>
+        <v>0</v>
       </c>
       <c r="J123" t="n">
-        <v>113.136</v>
+        <v>128.596</v>
       </c>
       <c r="K123" t="n">
-        <v>160.327</v>
+        <v>138.593</v>
       </c>
     </row>
     <row r="124">
@@ -5487,28 +5487,28 @@
         <v>178</v>
       </c>
       <c r="D124" t="n">
-        <v>257.5</v>
+        <v>0</v>
       </c>
       <c r="E124" t="n">
-        <v>1176.7</v>
+        <v>0</v>
       </c>
       <c r="F124" t="n">
-        <v>6305.7</v>
+        <v>0</v>
       </c>
       <c r="G124" t="n">
-        <v>44766.2</v>
+        <v>0</v>
       </c>
       <c r="H124" t="n">
-        <v>0.512</v>
+        <v>4.401</v>
       </c>
       <c r="I124" t="n">
-        <v>3.926</v>
+        <v>0</v>
       </c>
       <c r="J124" t="n">
-        <v>15.817</v>
+        <v>0</v>
       </c>
       <c r="K124" t="n">
-        <v>152.4</v>
+        <v>184.669</v>
       </c>
     </row>
     <row r="125">
@@ -5522,28 +5522,28 @@
         <v>180</v>
       </c>
       <c r="D125" t="n">
-        <v>12195.9</v>
+        <v>0</v>
       </c>
       <c r="E125" t="n">
-        <v>8018.8</v>
+        <v>0</v>
       </c>
       <c r="F125" t="n">
-        <v>20342.4</v>
+        <v>0</v>
       </c>
       <c r="G125" t="n">
-        <v>22928.2</v>
+        <v>0</v>
       </c>
       <c r="H125" t="n">
-        <v>52.474</v>
+        <v>66.199</v>
       </c>
       <c r="I125" t="n">
-        <v>35.527</v>
+        <v>0</v>
       </c>
       <c r="J125" t="n">
-        <v>78.368</v>
+        <v>92.419</v>
       </c>
       <c r="K125" t="n">
-        <v>96.286</v>
+        <v>94.265</v>
       </c>
     </row>
     <row r="126">
@@ -5557,25 +5557,25 @@
         <v>181</v>
       </c>
       <c r="D126" t="n">
-        <v>6596</v>
+        <v>0</v>
       </c>
       <c r="E126" t="n">
-        <v>16.1</v>
+        <v>0</v>
       </c>
       <c r="F126" t="n">
-        <v>1062.5</v>
+        <v>0</v>
       </c>
       <c r="G126" t="n">
         <v>0</v>
       </c>
       <c r="H126" t="n">
-        <v>57.966</v>
+        <v>91.259</v>
       </c>
       <c r="I126" t="n">
-        <v>0.287</v>
+        <v>0</v>
       </c>
       <c r="J126" t="n">
-        <v>6.192</v>
+        <v>0</v>
       </c>
       <c r="K126" t="n">
         <v>0</v>
@@ -5592,28 +5592,28 @@
         <v>179</v>
       </c>
       <c r="D127" t="n">
-        <v>8507.1</v>
+        <v>0</v>
       </c>
       <c r="E127" t="n">
-        <v>8826.6</v>
+        <v>0</v>
       </c>
       <c r="F127" t="n">
-        <v>19077.6</v>
+        <v>0</v>
       </c>
       <c r="G127" t="n">
-        <v>17140.4</v>
+        <v>0</v>
       </c>
       <c r="H127" t="n">
-        <v>37.476</v>
+        <v>70.97</v>
       </c>
       <c r="I127" t="n">
-        <v>40.995</v>
+        <v>19.207</v>
       </c>
       <c r="J127" t="n">
-        <v>60.647</v>
+        <v>77.036</v>
       </c>
       <c r="K127" t="n">
-        <v>68.552</v>
+        <v>48.572</v>
       </c>
     </row>
     <row r="128">
@@ -5627,28 +5627,28 @@
         <v>182</v>
       </c>
       <c r="D128" t="n">
-        <v>2545</v>
+        <v>0</v>
       </c>
       <c r="E128" t="n">
-        <v>269.3</v>
+        <v>0</v>
       </c>
       <c r="F128" t="n">
-        <v>35068.9</v>
+        <v>0</v>
       </c>
       <c r="G128" t="n">
-        <v>8878.1</v>
+        <v>0</v>
       </c>
       <c r="H128" t="n">
-        <v>8.973</v>
+        <v>8.297</v>
       </c>
       <c r="I128" t="n">
-        <v>1.182</v>
+        <v>0</v>
       </c>
       <c r="J128" t="n">
-        <v>117.397</v>
+        <v>190.201</v>
       </c>
       <c r="K128" t="n">
-        <v>30.635</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129">
@@ -5665,25 +5665,25 @@
         <v>0</v>
       </c>
       <c r="E129" t="n">
-        <v>78.9</v>
+        <v>0</v>
       </c>
       <c r="F129" t="n">
-        <v>4336.4</v>
+        <v>0</v>
       </c>
       <c r="G129" t="n">
-        <v>66827</v>
+        <v>0</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
       </c>
       <c r="I129" t="n">
-        <v>0.558</v>
+        <v>0</v>
       </c>
       <c r="J129" t="n">
-        <v>4.362</v>
+        <v>2.973</v>
       </c>
       <c r="K129" t="n">
-        <v>113.785</v>
+        <v>130.685</v>
       </c>
     </row>
     <row r="130">
@@ -5703,10 +5703,10 @@
         <v>0</v>
       </c>
       <c r="F130" t="n">
-        <v>137.3</v>
+        <v>0</v>
       </c>
       <c r="G130" t="n">
-        <v>44280.2</v>
+        <v>0</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -5715,10 +5715,10 @@
         <v>0</v>
       </c>
       <c r="J130" t="n">
-        <v>0.16</v>
+        <v>0</v>
       </c>
       <c r="K130" t="n">
-        <v>62.319</v>
+        <v>66.824</v>
       </c>
     </row>
     <row r="131">
@@ -5738,10 +5738,10 @@
         <v>0</v>
       </c>
       <c r="F131" t="n">
-        <v>50.2</v>
+        <v>0</v>
       </c>
       <c r="G131" t="n">
-        <v>65974.2</v>
+        <v>0</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -5753,7 +5753,7 @@
         <v>0</v>
       </c>
       <c r="K131" t="n">
-        <v>112.789</v>
+        <v>123.423</v>
       </c>
     </row>
     <row r="132">
@@ -5767,28 +5767,28 @@
         <v>149</v>
       </c>
       <c r="D132" t="n">
-        <v>25.9</v>
+        <v>0</v>
       </c>
       <c r="E132" t="n">
         <v>0</v>
       </c>
       <c r="F132" t="n">
-        <v>110629.3</v>
+        <v>0</v>
       </c>
       <c r="G132" t="n">
-        <v>3350.2</v>
+        <v>0</v>
       </c>
       <c r="H132" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="I132" t="n">
         <v>0</v>
       </c>
       <c r="J132" t="n">
-        <v>172.09</v>
+        <v>179.66</v>
       </c>
       <c r="K132" t="n">
-        <v>6.016</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133">
@@ -5805,25 +5805,25 @@
         <v>0</v>
       </c>
       <c r="E133" t="n">
-        <v>61</v>
+        <v>0</v>
       </c>
       <c r="F133" t="n">
-        <v>977.7</v>
+        <v>0</v>
       </c>
       <c r="G133" t="n">
-        <v>45042.7</v>
+        <v>0</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
       </c>
       <c r="I133" t="n">
-        <v>0.173</v>
+        <v>0</v>
       </c>
       <c r="J133" t="n">
-        <v>1.409</v>
+        <v>0</v>
       </c>
       <c r="K133" t="n">
-        <v>124.754</v>
+        <v>117.861</v>
       </c>
     </row>
     <row r="134">
@@ -5837,28 +5837,28 @@
         <v>190</v>
       </c>
       <c r="D134" t="n">
-        <v>2570.5</v>
+        <v>0</v>
       </c>
       <c r="E134" t="n">
         <v>0</v>
       </c>
       <c r="F134" t="n">
-        <v>47323.2</v>
+        <v>0</v>
       </c>
       <c r="G134" t="n">
-        <v>6086.4</v>
+        <v>0</v>
       </c>
       <c r="H134" t="n">
-        <v>7.372</v>
+        <v>0</v>
       </c>
       <c r="I134" t="n">
         <v>0</v>
       </c>
       <c r="J134" t="n">
-        <v>181.223</v>
+        <v>230.058</v>
       </c>
       <c r="K134" t="n">
-        <v>20.131</v>
+        <v>27.955</v>
       </c>
     </row>
     <row r="135">
@@ -5878,10 +5878,10 @@
         <v>0</v>
       </c>
       <c r="F135" t="n">
-        <v>4882.2</v>
+        <v>0</v>
       </c>
       <c r="G135" t="n">
-        <v>56737.2</v>
+        <v>0</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -5890,10 +5890,10 @@
         <v>0</v>
       </c>
       <c r="J135" t="n">
-        <v>22.581</v>
+        <v>0</v>
       </c>
       <c r="K135" t="n">
-        <v>193.317</v>
+        <v>185.196</v>
       </c>
     </row>
     <row r="136">
@@ -5907,25 +5907,25 @@
         <v>193</v>
       </c>
       <c r="D136" t="n">
-        <v>19361.6</v>
+        <v>0</v>
       </c>
       <c r="E136" t="n">
-        <v>47.5</v>
+        <v>0</v>
       </c>
       <c r="F136" t="n">
-        <v>2261.4</v>
+        <v>0</v>
       </c>
       <c r="G136" t="n">
-        <v>110.9</v>
+        <v>0</v>
       </c>
       <c r="H136" t="n">
-        <v>93.384</v>
+        <v>104.302</v>
       </c>
       <c r="I136" t="n">
         <v>0</v>
       </c>
       <c r="J136" t="n">
-        <v>7.607</v>
+        <v>0</v>
       </c>
       <c r="K136" t="n">
         <v>0</v>
@@ -5942,28 +5942,28 @@
         <v>194</v>
       </c>
       <c r="D137" t="n">
-        <v>34078.7</v>
+        <v>0</v>
       </c>
       <c r="E137" t="n">
-        <v>360.7</v>
+        <v>0</v>
       </c>
       <c r="F137" t="n">
-        <v>23783.7</v>
+        <v>0</v>
       </c>
       <c r="G137" t="n">
-        <v>5012.3</v>
+        <v>0</v>
       </c>
       <c r="H137" t="n">
-        <v>121.883</v>
+        <v>141.66</v>
       </c>
       <c r="I137" t="n">
-        <v>1.444</v>
+        <v>0</v>
       </c>
       <c r="J137" t="n">
-        <v>87.503</v>
+        <v>83.79</v>
       </c>
       <c r="K137" t="n">
-        <v>20.98</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138">
@@ -5977,28 +5977,28 @@
         <v>195</v>
       </c>
       <c r="D138" t="n">
-        <v>10273.8</v>
+        <v>0</v>
       </c>
       <c r="E138" t="n">
-        <v>47.5</v>
+        <v>0</v>
       </c>
       <c r="F138" t="n">
-        <v>22409.8</v>
+        <v>0</v>
       </c>
       <c r="G138" t="n">
-        <v>9804.2</v>
+        <v>0</v>
       </c>
       <c r="H138" t="n">
-        <v>31.931</v>
+        <v>16.924</v>
       </c>
       <c r="I138" t="n">
-        <v>0.093</v>
+        <v>0</v>
       </c>
       <c r="J138" t="n">
-        <v>65.043</v>
+        <v>68.179</v>
       </c>
       <c r="K138" t="n">
-        <v>22.338</v>
+        <v>22.267</v>
       </c>
     </row>
     <row r="139">
@@ -6018,10 +6018,10 @@
         <v>0</v>
       </c>
       <c r="F139" t="n">
-        <v>105543.2</v>
+        <v>0</v>
       </c>
       <c r="G139" t="n">
-        <v>69975.7</v>
+        <v>0</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -6030,10 +6030,10 @@
         <v>0</v>
       </c>
       <c r="J139" t="n">
-        <v>122.054</v>
+        <v>135.424</v>
       </c>
       <c r="K139" t="n">
-        <v>86.597</v>
+        <v>83.238</v>
       </c>
     </row>
     <row r="140">
@@ -6053,10 +6053,10 @@
         <v>0</v>
       </c>
       <c r="F140" t="n">
-        <v>127370.7</v>
+        <v>0</v>
       </c>
       <c r="G140" t="n">
-        <v>30902.6</v>
+        <v>0</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -6065,10 +6065,10 @@
         <v>0</v>
       </c>
       <c r="J140" t="n">
-        <v>126.275</v>
+        <v>138.749</v>
       </c>
       <c r="K140" t="n">
-        <v>44.031</v>
+        <v>18.584</v>
       </c>
     </row>
     <row r="141">
@@ -6088,10 +6088,10 @@
         <v>0</v>
       </c>
       <c r="F141" t="n">
-        <v>12021.2</v>
+        <v>0</v>
       </c>
       <c r="G141" t="n">
-        <v>18426.3</v>
+        <v>0</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -6100,10 +6100,10 @@
         <v>0</v>
       </c>
       <c r="J141" t="n">
-        <v>70.639</v>
+        <v>87.385</v>
       </c>
       <c r="K141" t="n">
-        <v>123.444</v>
+        <v>139.83</v>
       </c>
     </row>
     <row r="142">
@@ -6123,10 +6123,10 @@
         <v>0</v>
       </c>
       <c r="F142" t="n">
-        <v>16330.7</v>
+        <v>0</v>
       </c>
       <c r="G142" t="n">
-        <v>9451.7</v>
+        <v>0</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -6135,10 +6135,10 @@
         <v>0</v>
       </c>
       <c r="J142" t="n">
-        <v>89.208</v>
+        <v>32.003</v>
       </c>
       <c r="K142" t="n">
-        <v>55.116</v>
+        <v>121.198</v>
       </c>
     </row>
     <row r="143">
@@ -6152,28 +6152,28 @@
         <v>202</v>
       </c>
       <c r="D143" t="n">
-        <v>478.5</v>
+        <v>0</v>
       </c>
       <c r="E143" t="n">
         <v>0</v>
       </c>
       <c r="F143" t="n">
-        <v>28165.3</v>
+        <v>0</v>
       </c>
       <c r="G143" t="n">
-        <v>4557.4</v>
+        <v>0</v>
       </c>
       <c r="H143" t="n">
-        <v>1.665</v>
+        <v>0</v>
       </c>
       <c r="I143" t="n">
         <v>0</v>
       </c>
       <c r="J143" t="n">
-        <v>172.657</v>
+        <v>179.357</v>
       </c>
       <c r="K143" t="n">
-        <v>23.682</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144">
@@ -6187,28 +6187,28 @@
         <v>199</v>
       </c>
       <c r="D144" t="n">
-        <v>285.1</v>
+        <v>0</v>
       </c>
       <c r="E144" t="n">
         <v>0</v>
       </c>
       <c r="F144" t="n">
-        <v>41118.3</v>
+        <v>0</v>
       </c>
       <c r="G144" t="n">
-        <v>279.3</v>
+        <v>0</v>
       </c>
       <c r="H144" t="n">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="I144" t="n">
         <v>0</v>
       </c>
       <c r="J144" t="n">
-        <v>215.921</v>
+        <v>247.871</v>
       </c>
       <c r="K144" t="n">
-        <v>2.097</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145">
@@ -6222,28 +6222,28 @@
         <v>204</v>
       </c>
       <c r="D145" t="n">
-        <v>5222.3</v>
+        <v>0</v>
       </c>
       <c r="E145" t="n">
-        <v>106.9</v>
+        <v>0</v>
       </c>
       <c r="F145" t="n">
-        <v>13153.3</v>
+        <v>0</v>
       </c>
       <c r="G145" t="n">
-        <v>26805.1</v>
+        <v>0</v>
       </c>
       <c r="H145" t="n">
-        <v>6.224</v>
+        <v>4.004</v>
       </c>
       <c r="I145" t="n">
-        <v>0.316</v>
+        <v>0</v>
       </c>
       <c r="J145" t="n">
-        <v>17.878</v>
+        <v>28.463</v>
       </c>
       <c r="K145" t="n">
-        <v>58.019</v>
+        <v>43.551</v>
       </c>
     </row>
     <row r="146">
@@ -6257,28 +6257,28 @@
         <v>205</v>
       </c>
       <c r="D146" t="n">
-        <v>3128.5</v>
+        <v>0</v>
       </c>
       <c r="E146" t="n">
-        <v>648.1</v>
+        <v>0</v>
       </c>
       <c r="F146" t="n">
-        <v>49016.5</v>
+        <v>0</v>
       </c>
       <c r="G146" t="n">
-        <v>9658.2</v>
+        <v>0</v>
       </c>
       <c r="H146" t="n">
-        <v>5.156</v>
+        <v>4.101</v>
       </c>
       <c r="I146" t="n">
-        <v>1.08</v>
+        <v>0</v>
       </c>
       <c r="J146" t="n">
-        <v>89.916</v>
+        <v>138.043</v>
       </c>
       <c r="K146" t="n">
-        <v>16.976</v>
+        <v>0</v>
       </c>
     </row>
     <row r="147">
@@ -6292,28 +6292,28 @@
         <v>206</v>
       </c>
       <c r="D147" t="n">
-        <v>573</v>
+        <v>0</v>
       </c>
       <c r="E147" t="n">
-        <v>104.5</v>
+        <v>0</v>
       </c>
       <c r="F147" t="n">
-        <v>42657.7</v>
+        <v>0</v>
       </c>
       <c r="G147" t="n">
-        <v>27781.1</v>
+        <v>0</v>
       </c>
       <c r="H147" t="n">
-        <v>1.528</v>
+        <v>0</v>
       </c>
       <c r="I147" t="n">
-        <v>0.177</v>
+        <v>0</v>
       </c>
       <c r="J147" t="n">
-        <v>146.136</v>
+        <v>150.2</v>
       </c>
       <c r="K147" t="n">
-        <v>73.167</v>
+        <v>63.472</v>
       </c>
     </row>
     <row r="148">
@@ -6327,28 +6327,28 @@
         <v>207</v>
       </c>
       <c r="D148" t="n">
-        <v>755.3</v>
+        <v>0</v>
       </c>
       <c r="E148" t="n">
-        <v>67.4</v>
+        <v>0</v>
       </c>
       <c r="F148" t="n">
-        <v>46377</v>
+        <v>0</v>
       </c>
       <c r="G148" t="n">
-        <v>1189.7</v>
+        <v>0</v>
       </c>
       <c r="H148" t="n">
-        <v>2.663</v>
+        <v>0</v>
       </c>
       <c r="I148" t="n">
-        <v>0.152</v>
+        <v>0</v>
       </c>
       <c r="J148" t="n">
-        <v>125.257</v>
+        <v>91.071</v>
       </c>
       <c r="K148" t="n">
-        <v>2.975</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149">
@@ -6362,28 +6362,28 @@
         <v>209</v>
       </c>
       <c r="D149" t="n">
-        <v>32859</v>
+        <v>0</v>
       </c>
       <c r="E149" t="n">
-        <v>116.8</v>
+        <v>0</v>
       </c>
       <c r="F149" t="n">
-        <v>3629.1</v>
+        <v>0</v>
       </c>
       <c r="G149" t="n">
-        <v>5500.4</v>
+        <v>0</v>
       </c>
       <c r="H149" t="n">
-        <v>127.128</v>
+        <v>119.333</v>
       </c>
       <c r="I149" t="n">
-        <v>0.462</v>
+        <v>0</v>
       </c>
       <c r="J149" t="n">
-        <v>6.198</v>
+        <v>10.152</v>
       </c>
       <c r="K149" t="n">
-        <v>8.51</v>
+        <v>11.694</v>
       </c>
     </row>
     <row r="150">
@@ -6397,25 +6397,25 @@
         <v>210</v>
       </c>
       <c r="D150" t="n">
-        <v>27971.7</v>
+        <v>0</v>
       </c>
       <c r="E150" t="n">
         <v>0</v>
       </c>
       <c r="F150" t="n">
-        <v>5106.3</v>
+        <v>0</v>
       </c>
       <c r="G150" t="n">
         <v>0</v>
       </c>
       <c r="H150" t="n">
-        <v>108.327</v>
+        <v>121.563</v>
       </c>
       <c r="I150" t="n">
         <v>0</v>
       </c>
       <c r="J150" t="n">
-        <v>15.786</v>
+        <v>16.43</v>
       </c>
       <c r="K150" t="n">
         <v>0</v>
@@ -6432,28 +6432,28 @@
         <v>212</v>
       </c>
       <c r="D151" t="n">
-        <v>835</v>
+        <v>0</v>
       </c>
       <c r="E151" t="n">
-        <v>1312.4</v>
+        <v>0</v>
       </c>
       <c r="F151" t="n">
-        <v>19908.9</v>
+        <v>0</v>
       </c>
       <c r="G151" t="n">
-        <v>6818.9</v>
+        <v>0</v>
       </c>
       <c r="H151" t="n">
-        <v>2.201</v>
+        <v>0</v>
       </c>
       <c r="I151" t="n">
-        <v>3.39</v>
+        <v>0</v>
       </c>
       <c r="J151" t="n">
-        <v>41.7</v>
+        <v>43.691</v>
       </c>
       <c r="K151" t="n">
-        <v>13.158</v>
+        <v>14.729</v>
       </c>
     </row>
     <row r="152">
@@ -6467,28 +6467,28 @@
         <v>213</v>
       </c>
       <c r="D152" t="n">
-        <v>2441.7</v>
+        <v>0</v>
       </c>
       <c r="E152" t="n">
-        <v>204</v>
+        <v>0</v>
       </c>
       <c r="F152" t="n">
-        <v>49108.2</v>
+        <v>0</v>
       </c>
       <c r="G152" t="n">
-        <v>31794.2</v>
+        <v>0</v>
       </c>
       <c r="H152" t="n">
-        <v>2.027</v>
+        <v>0</v>
       </c>
       <c r="I152" t="n">
-        <v>0.234</v>
+        <v>0</v>
       </c>
       <c r="J152" t="n">
-        <v>103.203</v>
+        <v>103.811</v>
       </c>
       <c r="K152" t="n">
-        <v>74.46</v>
+        <v>48.889</v>
       </c>
     </row>
     <row r="153">
@@ -6502,28 +6502,28 @@
         <v>215</v>
       </c>
       <c r="D153" t="n">
-        <v>153.5</v>
+        <v>0</v>
       </c>
       <c r="E153" t="n">
         <v>0</v>
       </c>
       <c r="F153" t="n">
-        <v>7572.7</v>
+        <v>0</v>
       </c>
       <c r="G153" t="n">
-        <v>17675.7</v>
+        <v>0</v>
       </c>
       <c r="H153" t="n">
-        <v>1.913</v>
+        <v>0</v>
       </c>
       <c r="I153" t="n">
         <v>0</v>
       </c>
       <c r="J153" t="n">
-        <v>46.442</v>
+        <v>47.734</v>
       </c>
       <c r="K153" t="n">
-        <v>105.279</v>
+        <v>40.352</v>
       </c>
     </row>
     <row r="154">
@@ -6537,28 +6537,28 @@
         <v>216</v>
       </c>
       <c r="D154" t="n">
-        <v>84.2</v>
+        <v>0</v>
       </c>
       <c r="E154" t="n">
         <v>0</v>
       </c>
       <c r="F154" t="n">
-        <v>7085.5</v>
+        <v>0</v>
       </c>
       <c r="G154" t="n">
-        <v>17839.2</v>
+        <v>0</v>
       </c>
       <c r="H154" t="n">
-        <v>0.42</v>
+        <v>0</v>
       </c>
       <c r="I154" t="n">
         <v>0</v>
       </c>
       <c r="J154" t="n">
-        <v>24.858</v>
+        <v>45.204</v>
       </c>
       <c r="K154" t="n">
-        <v>39.49</v>
+        <v>18.271</v>
       </c>
     </row>
     <row r="155">
@@ -6572,28 +6572,28 @@
         <v>217</v>
       </c>
       <c r="D155" t="n">
-        <v>362.5</v>
+        <v>0</v>
       </c>
       <c r="E155" t="n">
         <v>0</v>
       </c>
       <c r="F155" t="n">
-        <v>1146.7</v>
+        <v>0</v>
       </c>
       <c r="G155" t="n">
-        <v>345.3</v>
+        <v>0</v>
       </c>
       <c r="H155" t="n">
-        <v>3.869</v>
+        <v>12.192</v>
       </c>
       <c r="I155" t="n">
         <v>0</v>
       </c>
       <c r="J155" t="n">
-        <v>3.884</v>
+        <v>25.543</v>
       </c>
       <c r="K155" t="n">
-        <v>1.326</v>
+        <v>0</v>
       </c>
     </row>
     <row r="156">
@@ -6607,28 +6607,28 @@
         <v>219</v>
       </c>
       <c r="D156" t="n">
-        <v>188</v>
+        <v>0</v>
       </c>
       <c r="E156" t="n">
         <v>0</v>
       </c>
       <c r="F156" t="n">
-        <v>38564.7</v>
+        <v>0</v>
       </c>
       <c r="G156" t="n">
-        <v>99.9</v>
+        <v>0</v>
       </c>
       <c r="H156" t="n">
-        <v>0.717</v>
+        <v>0</v>
       </c>
       <c r="I156" t="n">
         <v>0</v>
       </c>
       <c r="J156" t="n">
-        <v>121.666</v>
+        <v>146.24</v>
       </c>
       <c r="K156" t="n">
-        <v>0.398</v>
+        <v>0</v>
       </c>
     </row>
     <row r="157">
@@ -6642,25 +6642,25 @@
         <v>220</v>
       </c>
       <c r="D157" t="n">
-        <v>94</v>
+        <v>0</v>
       </c>
       <c r="E157" t="n">
         <v>0</v>
       </c>
       <c r="F157" t="n">
-        <v>49523.3</v>
+        <v>0</v>
       </c>
       <c r="G157" t="n">
         <v>0</v>
       </c>
       <c r="H157" t="n">
-        <v>0.412</v>
+        <v>0</v>
       </c>
       <c r="I157" t="n">
         <v>0</v>
       </c>
       <c r="J157" t="n">
-        <v>161.429</v>
+        <v>167.854</v>
       </c>
       <c r="K157" t="n">
         <v>0</v>
@@ -6677,28 +6677,28 @@
         <v>218</v>
       </c>
       <c r="D158" t="n">
-        <v>16.2</v>
+        <v>0</v>
       </c>
       <c r="E158" t="n">
         <v>0</v>
       </c>
       <c r="F158" t="n">
-        <v>85249.5</v>
+        <v>0</v>
       </c>
       <c r="G158" t="n">
-        <v>2679.9</v>
+        <v>0</v>
       </c>
       <c r="H158" t="n">
-        <v>0.025</v>
+        <v>0</v>
       </c>
       <c r="I158" t="n">
         <v>0</v>
       </c>
       <c r="J158" t="n">
-        <v>242.204</v>
+        <v>284.222</v>
       </c>
       <c r="K158" t="n">
-        <v>6.568</v>
+        <v>0</v>
       </c>
     </row>
     <row r="159">
@@ -6718,7 +6718,7 @@
         <v>0</v>
       </c>
       <c r="F159" t="n">
-        <v>2661.8</v>
+        <v>0</v>
       </c>
       <c r="G159" t="n">
         <v>0</v>
@@ -6730,7 +6730,7 @@
         <v>0</v>
       </c>
       <c r="J159" t="n">
-        <v>4.736</v>
+        <v>26.24</v>
       </c>
       <c r="K159" t="n">
         <v>0</v>
@@ -6747,28 +6747,28 @@
         <v>223</v>
       </c>
       <c r="D160" t="n">
-        <v>1268.7</v>
+        <v>0</v>
       </c>
       <c r="E160" t="n">
         <v>0</v>
       </c>
       <c r="F160" t="n">
-        <v>40774</v>
+        <v>0</v>
       </c>
       <c r="G160" t="n">
-        <v>2616.3</v>
+        <v>0</v>
       </c>
       <c r="H160" t="n">
-        <v>5.254</v>
+        <v>0</v>
       </c>
       <c r="I160" t="n">
         <v>0</v>
       </c>
       <c r="J160" t="n">
-        <v>206.498</v>
+        <v>223.764</v>
       </c>
       <c r="K160" t="n">
-        <v>15.861</v>
+        <v>0</v>
       </c>
     </row>
     <row r="161">
@@ -6782,28 +6782,28 @@
         <v>224</v>
       </c>
       <c r="D161" t="n">
-        <v>859.6</v>
+        <v>0</v>
       </c>
       <c r="E161" t="n">
         <v>0</v>
       </c>
       <c r="F161" t="n">
-        <v>52235</v>
+        <v>0</v>
       </c>
       <c r="G161" t="n">
-        <v>328.6</v>
+        <v>0</v>
       </c>
       <c r="H161" t="n">
-        <v>1.755</v>
+        <v>0</v>
       </c>
       <c r="I161" t="n">
         <v>0</v>
       </c>
       <c r="J161" t="n">
-        <v>286.469</v>
+        <v>282.245</v>
       </c>
       <c r="K161" t="n">
-        <v>2.256</v>
+        <v>0</v>
       </c>
     </row>
     <row r="162">
@@ -6817,28 +6817,28 @@
         <v>222</v>
       </c>
       <c r="D162" t="n">
-        <v>491.3</v>
+        <v>0</v>
       </c>
       <c r="E162" t="n">
         <v>0</v>
       </c>
       <c r="F162" t="n">
-        <v>28154.1</v>
+        <v>0</v>
       </c>
       <c r="G162" t="n">
-        <v>1038.4</v>
+        <v>0</v>
       </c>
       <c r="H162" t="n">
-        <v>0.399</v>
+        <v>0</v>
       </c>
       <c r="I162" t="n">
         <v>0</v>
       </c>
       <c r="J162" t="n">
-        <v>147.256</v>
+        <v>180.281</v>
       </c>
       <c r="K162" t="n">
-        <v>5.835</v>
+        <v>0</v>
       </c>
     </row>
     <row r="163">
@@ -6858,7 +6858,7 @@
         <v>0</v>
       </c>
       <c r="F163" t="n">
-        <v>1344.9</v>
+        <v>0</v>
       </c>
       <c r="G163" t="n">
         <v>0</v>
@@ -6870,7 +6870,7 @@
         <v>0</v>
       </c>
       <c r="J163" t="n">
-        <v>2.087</v>
+        <v>0</v>
       </c>
       <c r="K163" t="n">
         <v>0</v>
@@ -6887,28 +6887,28 @@
         <v>227</v>
       </c>
       <c r="D164" t="n">
-        <v>5802.7</v>
+        <v>0</v>
       </c>
       <c r="E164" t="n">
-        <v>8953.6</v>
+        <v>0</v>
       </c>
       <c r="F164" t="n">
-        <v>16232.4</v>
+        <v>0</v>
       </c>
       <c r="G164" t="n">
-        <v>44882.8</v>
+        <v>0</v>
       </c>
       <c r="H164" t="n">
-        <v>20.534</v>
+        <v>26.807</v>
       </c>
       <c r="I164" t="n">
-        <v>37.475</v>
+        <v>28.099</v>
       </c>
       <c r="J164" t="n">
-        <v>31.832</v>
+        <v>32.257</v>
       </c>
       <c r="K164" t="n">
-        <v>187.178</v>
+        <v>191.62</v>
       </c>
     </row>
     <row r="165">
@@ -6922,25 +6922,25 @@
         <v>228</v>
       </c>
       <c r="D165" t="n">
-        <v>784.9</v>
+        <v>0</v>
       </c>
       <c r="E165" t="n">
-        <v>149.7</v>
+        <v>0</v>
       </c>
       <c r="F165" t="n">
-        <v>1641.7</v>
+        <v>0</v>
       </c>
       <c r="G165" t="n">
         <v>0</v>
       </c>
       <c r="H165" t="n">
-        <v>0</v>
+        <v>15.864</v>
       </c>
       <c r="I165" t="n">
         <v>0</v>
       </c>
       <c r="J165" t="n">
-        <v>0.396</v>
+        <v>0</v>
       </c>
       <c r="K165" t="n">
         <v>0</v>
@@ -6957,28 +6957,28 @@
         <v>71</v>
       </c>
       <c r="D166" t="n">
-        <v>997.3</v>
+        <v>0</v>
       </c>
       <c r="E166" t="n">
-        <v>620.2</v>
+        <v>0</v>
       </c>
       <c r="F166" t="n">
-        <v>14941.3</v>
+        <v>0</v>
       </c>
       <c r="G166" t="n">
-        <v>19936.4</v>
+        <v>0</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
       </c>
       <c r="I166" t="n">
-        <v>0.361</v>
+        <v>0</v>
       </c>
       <c r="J166" t="n">
-        <v>42.814</v>
+        <v>35.666</v>
       </c>
       <c r="K166" t="n">
-        <v>62.818</v>
+        <v>62.004</v>
       </c>
     </row>
     <row r="167">
@@ -6998,10 +6998,10 @@
         <v>0</v>
       </c>
       <c r="F167" t="n">
-        <v>88531</v>
+        <v>0</v>
       </c>
       <c r="G167" t="n">
-        <v>17464.1</v>
+        <v>0</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -7010,10 +7010,10 @@
         <v>0</v>
       </c>
       <c r="J167" t="n">
-        <v>358.475</v>
+        <v>361.447</v>
       </c>
       <c r="K167" t="n">
-        <v>81.713</v>
+        <v>32.255</v>
       </c>
     </row>
   </sheetData>

--- a/public/data/soil/soil_table_uganda.xlsx
+++ b/public/data/soil/soil_table_uganda.xlsx
@@ -39,25 +39,25 @@
     <t xml:space="preserve">name of zone in each province</t>
   </si>
   <si>
-    <t xml:space="preserve">l_ph_h_hp_qed_ha</t>
+    <t xml:space="preserve">l_ph_h_hp_spam_ha</t>
   </si>
   <si>
     <t xml:space="preserve">cropland (ha) in areas with pH below 5.5 and acidity saturation equal and above 10% of ECEC</t>
   </si>
   <si>
-    <t xml:space="preserve">l_ph_l_hp_qed_ha</t>
+    <t xml:space="preserve">l_ph_l_hp_spam_ha</t>
   </si>
   <si>
     <t xml:space="preserve">cropland (ha) in areas with pH below 5.5 and acidity saturation below 10% of ECEC</t>
   </si>
   <si>
-    <t xml:space="preserve">h_ph_h_hp_qed_ha</t>
+    <t xml:space="preserve">h_ph_h_hp_spam_ha</t>
   </si>
   <si>
     <t xml:space="preserve">cropland (ha) in areas with pH equal and above 5.5 and acidity saturation equal and above 10% of ECEC</t>
   </si>
   <si>
-    <t xml:space="preserve">h_ph_l_hp_qed_ha</t>
+    <t xml:space="preserve">h_ph_l_hp_spam_ha</t>
   </si>
   <si>
     <t xml:space="preserve">cropland (ha) in areas with pH equal and above 5.5 and acidity saturation below 10% of ECEC</t>
@@ -1223,10 +1223,10 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>29069.2</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>66219.5</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -1258,7 +1258,7 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>72110.6</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -1293,7 +1293,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>63305.5</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -1328,7 +1328,7 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>67459.3</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -1363,7 +1363,7 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>107130.7</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -1398,7 +1398,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>1496.6</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1433,10 +1433,10 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>10477.3</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>1150.3</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1468,7 +1468,7 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>12963.9</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -1503,10 +1503,10 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>9202.2</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>35535</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1538,7 +1538,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>16061</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -1573,10 +1573,10 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>15013</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>6899.5</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -1608,10 +1608,10 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>23145.1</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>1150.3</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1643,10 +1643,10 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>113287.4</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>5275.8</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1678,10 +1678,10 @@
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>6853.2</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>42462.2</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1716,7 +1716,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>25320.2</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1742,13 +1742,13 @@
         <v>51</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>34959</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>8212.2</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -1777,16 +1777,16 @@
         <v>52</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>17193.3</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>4968.3</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>4640.6</v>
       </c>
       <c r="H18" t="n">
         <v>38.328</v>
@@ -1812,7 +1812,7 @@
         <v>53</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>77472.9</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -1847,7 +1847,7 @@
         <v>54</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>56916.3</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -1882,13 +1882,13 @@
         <v>55</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>54647.1</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>7837.1</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
@@ -1923,10 +1923,10 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>46039.3</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>3283.1</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1958,7 +1958,7 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>17300.3</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -1993,7 +1993,7 @@
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>1671.6</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
@@ -2028,10 +2028,10 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>43723.9</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>5766.9</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2063,10 +2063,10 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>41340.7</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>18202.6</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2098,7 +2098,7 @@
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>49118.6</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
@@ -2133,10 +2133,10 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>20919.8</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>5957.4</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2162,16 +2162,16 @@
         <v>65</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>2094.6</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>24774.6</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>15369.1</v>
       </c>
       <c r="H29" t="n">
         <v>25.277</v>
@@ -2203,7 +2203,7 @@
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>33552.4</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
@@ -2238,7 +2238,7 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>59371.6</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -2273,7 +2273,7 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>35488.8</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -2308,7 +2308,7 @@
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>46313.9</v>
       </c>
       <c r="G33" t="n">
         <v>0</v>
@@ -2343,10 +2343,10 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>9057.6</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>6690.1</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -2378,7 +2378,7 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>3173.5</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -2413,10 +2413,10 @@
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>16594.9</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>12933</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -2442,7 +2442,7 @@
         <v>74</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>2247.4</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -2477,7 +2477,7 @@
         <v>75</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>18754.4</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -2512,7 +2512,7 @@
         <v>76</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>39829.7</v>
       </c>
       <c r="E39" t="n">
         <v>0</v>
@@ -2547,16 +2547,16 @@
         <v>77</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>20211.7</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>4998.2</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>1522.7</v>
       </c>
       <c r="H40" t="n">
         <v>98.615</v>
@@ -2588,10 +2588,10 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>2225.8</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>17101.6</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -2617,16 +2617,16 @@
         <v>80</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>198.8</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>2261.6</v>
       </c>
       <c r="F42" t="n">
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>37209.4</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -2661,7 +2661,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>1865.5</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -2693,7 +2693,7 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>30673.4</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
@@ -2728,7 +2728,7 @@
         <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>46324.1</v>
       </c>
       <c r="G45" t="n">
         <v>0</v>
@@ -2757,7 +2757,7 @@
         <v>85</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>10162.9</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -2792,7 +2792,7 @@
         <v>86</v>
       </c>
       <c r="D47" t="n">
-        <v>0</v>
+        <v>3237.1</v>
       </c>
       <c r="E47" t="n">
         <v>0</v>
@@ -2833,10 +2833,10 @@
         <v>0</v>
       </c>
       <c r="F48" t="n">
-        <v>0</v>
+        <v>2517.6</v>
       </c>
       <c r="G48" t="n">
-        <v>0</v>
+        <v>5270.1</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2868,7 +2868,7 @@
         <v>0</v>
       </c>
       <c r="F49" t="n">
-        <v>0</v>
+        <v>82431.2</v>
       </c>
       <c r="G49" t="n">
         <v>0</v>
@@ -2903,7 +2903,7 @@
         <v>0</v>
       </c>
       <c r="F50" t="n">
-        <v>0</v>
+        <v>67936.4</v>
       </c>
       <c r="G50" t="n">
         <v>0</v>
@@ -2938,7 +2938,7 @@
         <v>0</v>
       </c>
       <c r="F51" t="n">
-        <v>0</v>
+        <v>80367.1</v>
       </c>
       <c r="G51" t="n">
         <v>0</v>
@@ -2973,7 +2973,7 @@
         <v>0</v>
       </c>
       <c r="F52" t="n">
-        <v>0</v>
+        <v>28062.4</v>
       </c>
       <c r="G52" t="n">
         <v>0</v>
@@ -3002,16 +3002,16 @@
         <v>94</v>
       </c>
       <c r="D53" t="n">
-        <v>0</v>
+        <v>198.8</v>
       </c>
       <c r="E53" t="n">
-        <v>0</v>
+        <v>1379.2</v>
       </c>
       <c r="F53" t="n">
-        <v>0</v>
+        <v>24341</v>
       </c>
       <c r="G53" t="n">
-        <v>0</v>
+        <v>20811.2</v>
       </c>
       <c r="H53" t="n">
         <v>4.251</v>
@@ -3037,13 +3037,13 @@
         <v>95</v>
       </c>
       <c r="D54" t="n">
-        <v>0</v>
+        <v>1767</v>
       </c>
       <c r="E54" t="n">
         <v>0</v>
       </c>
       <c r="F54" t="n">
-        <v>0</v>
+        <v>14321.4</v>
       </c>
       <c r="G54" t="n">
         <v>0</v>
@@ -3072,16 +3072,16 @@
         <v>97</v>
       </c>
       <c r="D55" t="n">
-        <v>0</v>
+        <v>62813.8</v>
       </c>
       <c r="E55" t="n">
-        <v>0</v>
+        <v>4356.8</v>
       </c>
       <c r="F55" t="n">
-        <v>0</v>
+        <v>23892.7</v>
       </c>
       <c r="G55" t="n">
-        <v>0</v>
+        <v>19943.1</v>
       </c>
       <c r="H55" t="n">
         <v>129.484</v>
@@ -3107,16 +3107,16 @@
         <v>99</v>
       </c>
       <c r="D56" t="n">
-        <v>0</v>
+        <v>2320.6</v>
       </c>
       <c r="E56" t="n">
         <v>0</v>
       </c>
       <c r="F56" t="n">
-        <v>0</v>
+        <v>4302.1</v>
       </c>
       <c r="G56" t="n">
-        <v>0</v>
+        <v>17275.9</v>
       </c>
       <c r="H56" t="n">
         <v>3.992</v>
@@ -3142,16 +3142,16 @@
         <v>100</v>
       </c>
       <c r="D57" t="n">
-        <v>0</v>
+        <v>205.6</v>
       </c>
       <c r="E57" t="n">
         <v>0</v>
       </c>
       <c r="F57" t="n">
-        <v>0</v>
+        <v>15227.6</v>
       </c>
       <c r="G57" t="n">
-        <v>0</v>
+        <v>45365.3</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -3177,16 +3177,16 @@
         <v>101</v>
       </c>
       <c r="D58" t="n">
-        <v>0</v>
+        <v>1327.1</v>
       </c>
       <c r="E58" t="n">
         <v>0</v>
       </c>
       <c r="F58" t="n">
-        <v>0</v>
+        <v>10925.5</v>
       </c>
       <c r="G58" t="n">
-        <v>0</v>
+        <v>35373</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -3218,10 +3218,10 @@
         <v>0</v>
       </c>
       <c r="F59" t="n">
-        <v>0</v>
+        <v>3153.1</v>
       </c>
       <c r="G59" t="n">
-        <v>0</v>
+        <v>16581.2</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -3253,10 +3253,10 @@
         <v>0</v>
       </c>
       <c r="F60" t="n">
-        <v>0</v>
+        <v>4805.3</v>
       </c>
       <c r="G60" t="n">
-        <v>0</v>
+        <v>27193.2</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -3288,10 +3288,10 @@
         <v>0</v>
       </c>
       <c r="F61" t="n">
-        <v>0</v>
+        <v>120595.9</v>
       </c>
       <c r="G61" t="n">
-        <v>0</v>
+        <v>8474.3</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -3323,10 +3323,10 @@
         <v>0</v>
       </c>
       <c r="F62" t="n">
-        <v>0</v>
+        <v>73996.9</v>
       </c>
       <c r="G62" t="n">
-        <v>0</v>
+        <v>3621.4</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -3358,10 +3358,10 @@
         <v>0</v>
       </c>
       <c r="F63" t="n">
-        <v>0</v>
+        <v>35898.9</v>
       </c>
       <c r="G63" t="n">
-        <v>0</v>
+        <v>101905.2</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -3393,7 +3393,7 @@
         <v>0</v>
       </c>
       <c r="F64" t="n">
-        <v>0</v>
+        <v>32164</v>
       </c>
       <c r="G64" t="n">
         <v>0</v>
@@ -3428,7 +3428,7 @@
         <v>0</v>
       </c>
       <c r="F65" t="n">
-        <v>0</v>
+        <v>25351</v>
       </c>
       <c r="G65" t="n">
         <v>0</v>
@@ -3463,10 +3463,10 @@
         <v>0</v>
       </c>
       <c r="F66" t="n">
-        <v>0</v>
+        <v>16398.8</v>
       </c>
       <c r="G66" t="n">
-        <v>0</v>
+        <v>44228.8</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -3495,13 +3495,13 @@
         <v>0</v>
       </c>
       <c r="E67" t="n">
-        <v>0</v>
+        <v>1796.3</v>
       </c>
       <c r="F67" t="n">
-        <v>0</v>
+        <v>14959</v>
       </c>
       <c r="G67" t="n">
-        <v>0</v>
+        <v>33089.8</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -3530,13 +3530,13 @@
         <v>0</v>
       </c>
       <c r="E68" t="n">
-        <v>0</v>
+        <v>3138.1</v>
       </c>
       <c r="F68" t="n">
         <v>0</v>
       </c>
       <c r="G68" t="n">
-        <v>0</v>
+        <v>44335.9</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -3568,10 +3568,10 @@
         <v>0</v>
       </c>
       <c r="F69" t="n">
-        <v>0</v>
+        <v>93174.2</v>
       </c>
       <c r="G69" t="n">
-        <v>0</v>
+        <v>23644.4</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -3597,13 +3597,13 @@
         <v>116</v>
       </c>
       <c r="D70" t="n">
-        <v>0</v>
+        <v>18479.7</v>
       </c>
       <c r="E70" t="n">
-        <v>0</v>
+        <v>1618.7</v>
       </c>
       <c r="F70" t="n">
-        <v>0</v>
+        <v>9601.5</v>
       </c>
       <c r="G70" t="n">
         <v>0</v>
@@ -3638,10 +3638,10 @@
         <v>0</v>
       </c>
       <c r="F71" t="n">
-        <v>0</v>
+        <v>6250.5</v>
       </c>
       <c r="G71" t="n">
-        <v>0</v>
+        <v>117861.3</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -3673,10 +3673,10 @@
         <v>0</v>
       </c>
       <c r="F72" t="n">
-        <v>0</v>
+        <v>17245.7</v>
       </c>
       <c r="G72" t="n">
-        <v>0</v>
+        <v>57897.8</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -3711,7 +3711,7 @@
         <v>0</v>
       </c>
       <c r="G73" t="n">
-        <v>0</v>
+        <v>113849.8</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -3746,7 +3746,7 @@
         <v>0</v>
       </c>
       <c r="G74" t="n">
-        <v>0</v>
+        <v>106281.7</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -3778,10 +3778,10 @@
         <v>0</v>
       </c>
       <c r="F75" t="n">
-        <v>0</v>
+        <v>784</v>
       </c>
       <c r="G75" t="n">
-        <v>0</v>
+        <v>3641.4</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3813,10 +3813,10 @@
         <v>0</v>
       </c>
       <c r="F76" t="n">
-        <v>0</v>
+        <v>22529.9</v>
       </c>
       <c r="G76" t="n">
-        <v>0</v>
+        <v>37685.8</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3848,10 +3848,10 @@
         <v>0</v>
       </c>
       <c r="F77" t="n">
-        <v>0</v>
+        <v>21882.6</v>
       </c>
       <c r="G77" t="n">
-        <v>0</v>
+        <v>8405.4</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3883,7 +3883,7 @@
         <v>0</v>
       </c>
       <c r="F78" t="n">
-        <v>0</v>
+        <v>43599.2</v>
       </c>
       <c r="G78" t="n">
         <v>0</v>
@@ -3915,13 +3915,13 @@
         <v>0</v>
       </c>
       <c r="E79" t="n">
-        <v>0</v>
+        <v>1341.8</v>
       </c>
       <c r="F79" t="n">
-        <v>0</v>
+        <v>1683.7</v>
       </c>
       <c r="G79" t="n">
-        <v>0</v>
+        <v>47780.4</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3950,13 +3950,13 @@
         <v>0</v>
       </c>
       <c r="E80" t="n">
-        <v>0</v>
+        <v>882.4</v>
       </c>
       <c r="F80" t="n">
-        <v>0</v>
+        <v>1683.7</v>
       </c>
       <c r="G80" t="n">
-        <v>0</v>
+        <v>54748.2</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3988,10 +3988,10 @@
         <v>0</v>
       </c>
       <c r="F81" t="n">
-        <v>0</v>
+        <v>7298.7</v>
       </c>
       <c r="G81" t="n">
-        <v>0</v>
+        <v>9063.1</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -4017,16 +4017,16 @@
         <v>131</v>
       </c>
       <c r="D82" t="n">
-        <v>0</v>
+        <v>37177.3</v>
       </c>
       <c r="E82" t="n">
-        <v>0</v>
+        <v>3839.2</v>
       </c>
       <c r="F82" t="n">
-        <v>0</v>
+        <v>58387.7</v>
       </c>
       <c r="G82" t="n">
-        <v>0</v>
+        <v>12509.1</v>
       </c>
       <c r="H82" t="n">
         <v>61.535</v>
@@ -4058,7 +4058,7 @@
         <v>0</v>
       </c>
       <c r="F83" t="n">
-        <v>0</v>
+        <v>57838.7</v>
       </c>
       <c r="G83" t="n">
         <v>0</v>
@@ -4093,7 +4093,7 @@
         <v>0</v>
       </c>
       <c r="F84" t="n">
-        <v>0</v>
+        <v>80509</v>
       </c>
       <c r="G84" t="n">
         <v>0</v>
@@ -4122,13 +4122,13 @@
         <v>135</v>
       </c>
       <c r="D85" t="n">
-        <v>0</v>
+        <v>35.4</v>
       </c>
       <c r="E85" t="n">
         <v>0</v>
       </c>
       <c r="F85" t="n">
-        <v>0</v>
+        <v>40879</v>
       </c>
       <c r="G85" t="n">
         <v>0</v>
@@ -4163,7 +4163,7 @@
         <v>0</v>
       </c>
       <c r="F86" t="n">
-        <v>0</v>
+        <v>2959.3</v>
       </c>
       <c r="G86" t="n">
         <v>0</v>
@@ -4198,7 +4198,7 @@
         <v>0</v>
       </c>
       <c r="F87" t="n">
-        <v>0</v>
+        <v>105107.5</v>
       </c>
       <c r="G87" t="n">
         <v>0</v>
@@ -4233,7 +4233,7 @@
         <v>0</v>
       </c>
       <c r="F88" t="n">
-        <v>0</v>
+        <v>50630.3</v>
       </c>
       <c r="G88" t="n">
         <v>0</v>
@@ -4268,10 +4268,10 @@
         <v>0</v>
       </c>
       <c r="F89" t="n">
-        <v>0</v>
+        <v>46798.4</v>
       </c>
       <c r="G89" t="n">
-        <v>0</v>
+        <v>2689</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -4303,10 +4303,10 @@
         <v>0</v>
       </c>
       <c r="F90" t="n">
-        <v>0</v>
+        <v>36504.8</v>
       </c>
       <c r="G90" t="n">
-        <v>0</v>
+        <v>44266.5</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -4338,10 +4338,10 @@
         <v>0</v>
       </c>
       <c r="F91" t="n">
-        <v>0</v>
+        <v>156245.4</v>
       </c>
       <c r="G91" t="n">
-        <v>0</v>
+        <v>58998.6</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -4373,7 +4373,7 @@
         <v>0</v>
       </c>
       <c r="F92" t="n">
-        <v>0</v>
+        <v>9102.1</v>
       </c>
       <c r="G92" t="n">
         <v>0</v>
@@ -4402,16 +4402,16 @@
         <v>144</v>
       </c>
       <c r="D93" t="n">
-        <v>0</v>
+        <v>1050.9</v>
       </c>
       <c r="E93" t="n">
-        <v>0</v>
+        <v>749.8</v>
       </c>
       <c r="F93" t="n">
-        <v>0</v>
+        <v>31195.6</v>
       </c>
       <c r="G93" t="n">
-        <v>0</v>
+        <v>10719.1</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -4443,10 +4443,10 @@
         <v>0</v>
       </c>
       <c r="F94" t="n">
-        <v>0</v>
+        <v>17754.6</v>
       </c>
       <c r="G94" t="n">
-        <v>0</v>
+        <v>2658.1</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -4478,7 +4478,7 @@
         <v>0</v>
       </c>
       <c r="F95" t="n">
-        <v>0</v>
+        <v>992.4</v>
       </c>
       <c r="G95" t="n">
         <v>0</v>
@@ -4507,16 +4507,16 @@
         <v>147</v>
       </c>
       <c r="D96" t="n">
-        <v>0</v>
+        <v>1534.7</v>
       </c>
       <c r="E96" t="n">
         <v>0</v>
       </c>
       <c r="F96" t="n">
-        <v>0</v>
+        <v>21484.9</v>
       </c>
       <c r="G96" t="n">
-        <v>0</v>
+        <v>2000.1</v>
       </c>
       <c r="H96" t="n">
         <v>10.226</v>
@@ -4542,7 +4542,7 @@
         <v>148</v>
       </c>
       <c r="D97" t="n">
-        <v>0</v>
+        <v>408.5</v>
       </c>
       <c r="E97" t="n">
         <v>0</v>
@@ -4551,7 +4551,7 @@
         <v>0</v>
       </c>
       <c r="G97" t="n">
-        <v>0</v>
+        <v>15329.7</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -4583,10 +4583,10 @@
         <v>0</v>
       </c>
       <c r="F98" t="n">
-        <v>0</v>
+        <v>50194.2</v>
       </c>
       <c r="G98" t="n">
-        <v>0</v>
+        <v>67.7</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -4618,10 +4618,10 @@
         <v>0</v>
       </c>
       <c r="F99" t="n">
-        <v>0</v>
+        <v>61984.4</v>
       </c>
       <c r="G99" t="n">
-        <v>0</v>
+        <v>846.6</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -4647,16 +4647,16 @@
         <v>152</v>
       </c>
       <c r="D100" t="n">
-        <v>0</v>
+        <v>2479.2</v>
       </c>
       <c r="E100" t="n">
         <v>0</v>
       </c>
       <c r="F100" t="n">
-        <v>0</v>
+        <v>58111.8</v>
       </c>
       <c r="G100" t="n">
-        <v>0</v>
+        <v>2112.2</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -4688,7 +4688,7 @@
         <v>0</v>
       </c>
       <c r="F101" t="n">
-        <v>0</v>
+        <v>50895.1</v>
       </c>
       <c r="G101" t="n">
         <v>0</v>
@@ -4723,10 +4723,10 @@
         <v>0</v>
       </c>
       <c r="F102" t="n">
-        <v>0</v>
+        <v>28088.6</v>
       </c>
       <c r="G102" t="n">
-        <v>0</v>
+        <v>19433.1</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -4758,7 +4758,7 @@
         <v>0</v>
       </c>
       <c r="F103" t="n">
-        <v>0</v>
+        <v>10594.2</v>
       </c>
       <c r="G103" t="n">
         <v>0</v>
@@ -4796,7 +4796,7 @@
         <v>0</v>
       </c>
       <c r="G104" t="n">
-        <v>0</v>
+        <v>3388.1</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4822,16 +4822,16 @@
         <v>158</v>
       </c>
       <c r="D105" t="n">
-        <v>0</v>
+        <v>4456.9</v>
       </c>
       <c r="E105" t="n">
         <v>0</v>
       </c>
       <c r="F105" t="n">
-        <v>0</v>
+        <v>37595.3</v>
       </c>
       <c r="G105" t="n">
-        <v>0</v>
+        <v>6757.9</v>
       </c>
       <c r="H105" t="n">
         <v>8.965</v>
@@ -4857,13 +4857,13 @@
         <v>159</v>
       </c>
       <c r="D106" t="n">
-        <v>0</v>
+        <v>11196.6</v>
       </c>
       <c r="E106" t="n">
         <v>0</v>
       </c>
       <c r="F106" t="n">
-        <v>0</v>
+        <v>30234.5</v>
       </c>
       <c r="G106" t="n">
         <v>0</v>
@@ -4892,16 +4892,16 @@
         <v>160</v>
       </c>
       <c r="D107" t="n">
-        <v>0</v>
+        <v>25463.9</v>
       </c>
       <c r="E107" t="n">
         <v>0</v>
       </c>
       <c r="F107" t="n">
-        <v>0</v>
+        <v>39120.2</v>
       </c>
       <c r="G107" t="n">
-        <v>0</v>
+        <v>2995.4</v>
       </c>
       <c r="H107" t="n">
         <v>130.798</v>
@@ -4927,16 +4927,16 @@
         <v>161</v>
       </c>
       <c r="D108" t="n">
-        <v>0</v>
+        <v>2250.7</v>
       </c>
       <c r="E108" t="n">
         <v>0</v>
       </c>
       <c r="F108" t="n">
-        <v>0</v>
+        <v>31599.8</v>
       </c>
       <c r="G108" t="n">
-        <v>0</v>
+        <v>35156.9</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4962,16 +4962,16 @@
         <v>162</v>
       </c>
       <c r="D109" t="n">
-        <v>0</v>
+        <v>3616.1</v>
       </c>
       <c r="E109" t="n">
         <v>0</v>
       </c>
       <c r="F109" t="n">
-        <v>0</v>
+        <v>79276.4</v>
       </c>
       <c r="G109" t="n">
-        <v>0</v>
+        <v>4918.4</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -5003,7 +5003,7 @@
         <v>0</v>
       </c>
       <c r="F110" t="n">
-        <v>0</v>
+        <v>3677</v>
       </c>
       <c r="G110" t="n">
         <v>0</v>
@@ -5032,16 +5032,16 @@
         <v>163</v>
       </c>
       <c r="D111" t="n">
-        <v>0</v>
+        <v>6752</v>
       </c>
       <c r="E111" t="n">
         <v>0</v>
       </c>
       <c r="F111" t="n">
-        <v>0</v>
+        <v>69639.1</v>
       </c>
       <c r="G111" t="n">
-        <v>0</v>
+        <v>51612.8</v>
       </c>
       <c r="H111" t="n">
         <v>7.577</v>
@@ -5067,13 +5067,13 @@
         <v>164</v>
       </c>
       <c r="D112" t="n">
-        <v>0</v>
+        <v>47072</v>
       </c>
       <c r="E112" t="n">
         <v>0</v>
       </c>
       <c r="F112" t="n">
-        <v>0</v>
+        <v>4451</v>
       </c>
       <c r="G112" t="n">
         <v>0</v>
@@ -5108,10 +5108,10 @@
         <v>0</v>
       </c>
       <c r="F113" t="n">
-        <v>0</v>
+        <v>6618.3</v>
       </c>
       <c r="G113" t="n">
-        <v>0</v>
+        <v>81944.8</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -5146,7 +5146,7 @@
         <v>0</v>
       </c>
       <c r="G114" t="n">
-        <v>0</v>
+        <v>43180.4</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -5181,7 +5181,7 @@
         <v>0</v>
       </c>
       <c r="G115" t="n">
-        <v>0</v>
+        <v>1464.9</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -5213,10 +5213,10 @@
         <v>0</v>
       </c>
       <c r="F116" t="n">
-        <v>0</v>
+        <v>11787.7</v>
       </c>
       <c r="G116" t="n">
-        <v>0</v>
+        <v>35083.2</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -5248,10 +5248,10 @@
         <v>0</v>
       </c>
       <c r="F117" t="n">
-        <v>0</v>
+        <v>29726.5</v>
       </c>
       <c r="G117" t="n">
-        <v>0</v>
+        <v>11221</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -5283,10 +5283,10 @@
         <v>0</v>
       </c>
       <c r="F118" t="n">
-        <v>0</v>
+        <v>27255.1</v>
       </c>
       <c r="G118" t="n">
-        <v>0</v>
+        <v>9285.5</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -5318,10 +5318,10 @@
         <v>0</v>
       </c>
       <c r="F119" t="n">
-        <v>0</v>
+        <v>72997.5</v>
       </c>
       <c r="G119" t="n">
-        <v>0</v>
+        <v>13478.5</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -5347,16 +5347,16 @@
         <v>173</v>
       </c>
       <c r="D120" t="n">
-        <v>0</v>
+        <v>5095.9</v>
       </c>
       <c r="E120" t="n">
-        <v>0</v>
+        <v>5665.3</v>
       </c>
       <c r="F120" t="n">
-        <v>0</v>
+        <v>39841.4</v>
       </c>
       <c r="G120" t="n">
-        <v>0</v>
+        <v>19896.7</v>
       </c>
       <c r="H120" t="n">
         <v>10.733</v>
@@ -5382,16 +5382,16 @@
         <v>175</v>
       </c>
       <c r="D121" t="n">
-        <v>0</v>
+        <v>1066.5</v>
       </c>
       <c r="E121" t="n">
         <v>0</v>
       </c>
       <c r="F121" t="n">
-        <v>0</v>
+        <v>7124.2</v>
       </c>
       <c r="G121" t="n">
-        <v>0</v>
+        <v>18008.1</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -5423,10 +5423,10 @@
         <v>0</v>
       </c>
       <c r="F122" t="n">
-        <v>0</v>
+        <v>15400.1</v>
       </c>
       <c r="G122" t="n">
-        <v>0</v>
+        <v>66411.1</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -5452,16 +5452,16 @@
         <v>177</v>
       </c>
       <c r="D123" t="n">
-        <v>0</v>
+        <v>1066.5</v>
       </c>
       <c r="E123" t="n">
         <v>0</v>
       </c>
       <c r="F123" t="n">
-        <v>0</v>
+        <v>21210.2</v>
       </c>
       <c r="G123" t="n">
-        <v>0</v>
+        <v>21867.2</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -5487,7 +5487,7 @@
         <v>178</v>
       </c>
       <c r="D124" t="n">
-        <v>0</v>
+        <v>1066.5</v>
       </c>
       <c r="E124" t="n">
         <v>0</v>
@@ -5496,7 +5496,7 @@
         <v>0</v>
       </c>
       <c r="G124" t="n">
-        <v>0</v>
+        <v>41199.4</v>
       </c>
       <c r="H124" t="n">
         <v>4.401</v>
@@ -5522,16 +5522,16 @@
         <v>180</v>
       </c>
       <c r="D125" t="n">
-        <v>0</v>
+        <v>6820.8</v>
       </c>
       <c r="E125" t="n">
         <v>0</v>
       </c>
       <c r="F125" t="n">
-        <v>0</v>
+        <v>9917.2</v>
       </c>
       <c r="G125" t="n">
-        <v>0</v>
+        <v>11155.7</v>
       </c>
       <c r="H125" t="n">
         <v>66.199</v>
@@ -5557,13 +5557,13 @@
         <v>181</v>
       </c>
       <c r="D126" t="n">
-        <v>0</v>
+        <v>4405.7</v>
       </c>
       <c r="E126" t="n">
         <v>0</v>
       </c>
       <c r="F126" t="n">
-        <v>0</v>
+        <v>233.5</v>
       </c>
       <c r="G126" t="n">
         <v>0</v>
@@ -5592,16 +5592,16 @@
         <v>179</v>
       </c>
       <c r="D127" t="n">
-        <v>0</v>
+        <v>5748.4</v>
       </c>
       <c r="E127" t="n">
-        <v>0</v>
+        <v>1483.1</v>
       </c>
       <c r="F127" t="n">
-        <v>0</v>
+        <v>15341.6</v>
       </c>
       <c r="G127" t="n">
-        <v>0</v>
+        <v>5430.5</v>
       </c>
       <c r="H127" t="n">
         <v>70.97</v>
@@ -5627,13 +5627,13 @@
         <v>182</v>
       </c>
       <c r="D128" t="n">
-        <v>0</v>
+        <v>878.6</v>
       </c>
       <c r="E128" t="n">
         <v>0</v>
       </c>
       <c r="F128" t="n">
-        <v>0</v>
+        <v>25415.5</v>
       </c>
       <c r="G128" t="n">
         <v>0</v>
@@ -5668,10 +5668,10 @@
         <v>0</v>
       </c>
       <c r="F129" t="n">
-        <v>0</v>
+        <v>369.9</v>
       </c>
       <c r="G129" t="n">
-        <v>0</v>
+        <v>43957.9</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -5706,7 +5706,7 @@
         <v>0</v>
       </c>
       <c r="G130" t="n">
-        <v>0</v>
+        <v>37861.5</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -5741,7 +5741,7 @@
         <v>0</v>
       </c>
       <c r="G131" t="n">
-        <v>0</v>
+        <v>21367.8</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -5767,13 +5767,13 @@
         <v>149</v>
       </c>
       <c r="D132" t="n">
-        <v>0</v>
+        <v>35.4</v>
       </c>
       <c r="E132" t="n">
         <v>0</v>
       </c>
       <c r="F132" t="n">
-        <v>0</v>
+        <v>95152.3</v>
       </c>
       <c r="G132" t="n">
         <v>0</v>
@@ -5811,7 +5811,7 @@
         <v>0</v>
       </c>
       <c r="G133" t="n">
-        <v>0</v>
+        <v>24002.9</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -5843,10 +5843,10 @@
         <v>0</v>
       </c>
       <c r="F134" t="n">
-        <v>0</v>
+        <v>20496.2</v>
       </c>
       <c r="G134" t="n">
-        <v>0</v>
+        <v>1519.1</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -5878,10 +5878,10 @@
         <v>0</v>
       </c>
       <c r="F135" t="n">
-        <v>0</v>
+        <v>3897.3</v>
       </c>
       <c r="G135" t="n">
-        <v>0</v>
+        <v>24496.1</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -5907,13 +5907,13 @@
         <v>193</v>
       </c>
       <c r="D136" t="n">
-        <v>0</v>
+        <v>22273.6</v>
       </c>
       <c r="E136" t="n">
         <v>0</v>
       </c>
       <c r="F136" t="n">
-        <v>0</v>
+        <v>2953</v>
       </c>
       <c r="G136" t="n">
         <v>0</v>
@@ -5942,13 +5942,13 @@
         <v>194</v>
       </c>
       <c r="D137" t="n">
-        <v>0</v>
+        <v>33817.6</v>
       </c>
       <c r="E137" t="n">
         <v>0</v>
       </c>
       <c r="F137" t="n">
-        <v>0</v>
+        <v>14494.4</v>
       </c>
       <c r="G137" t="n">
         <v>0</v>
@@ -5977,16 +5977,16 @@
         <v>195</v>
       </c>
       <c r="D138" t="n">
-        <v>0</v>
+        <v>10466.7</v>
       </c>
       <c r="E138" t="n">
         <v>0</v>
       </c>
       <c r="F138" t="n">
-        <v>0</v>
+        <v>16097.3</v>
       </c>
       <c r="G138" t="n">
-        <v>0</v>
+        <v>3854.3</v>
       </c>
       <c r="H138" t="n">
         <v>16.924</v>
@@ -6018,10 +6018,10 @@
         <v>0</v>
       </c>
       <c r="F139" t="n">
-        <v>0</v>
+        <v>36596.6</v>
       </c>
       <c r="G139" t="n">
-        <v>0</v>
+        <v>17943.7</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -6053,10 +6053,10 @@
         <v>0</v>
       </c>
       <c r="F140" t="n">
-        <v>0</v>
+        <v>43524.1</v>
       </c>
       <c r="G140" t="n">
-        <v>0</v>
+        <v>8305.8</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -6088,10 +6088,10 @@
         <v>0</v>
       </c>
       <c r="F141" t="n">
-        <v>0</v>
+        <v>11203.3</v>
       </c>
       <c r="G141" t="n">
-        <v>0</v>
+        <v>24510.6</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -6123,10 +6123,10 @@
         <v>0</v>
       </c>
       <c r="F142" t="n">
-        <v>0</v>
+        <v>24317.2</v>
       </c>
       <c r="G142" t="n">
-        <v>0</v>
+        <v>13295.2</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -6158,10 +6158,10 @@
         <v>0</v>
       </c>
       <c r="F143" t="n">
-        <v>0</v>
+        <v>22256.3</v>
       </c>
       <c r="G143" t="n">
-        <v>0</v>
+        <v>9142.7</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -6193,7 +6193,7 @@
         <v>0</v>
       </c>
       <c r="F144" t="n">
-        <v>0</v>
+        <v>49586.7</v>
       </c>
       <c r="G144" t="n">
         <v>0</v>
@@ -6222,16 +6222,16 @@
         <v>204</v>
       </c>
       <c r="D145" t="n">
-        <v>0</v>
+        <v>660.9</v>
       </c>
       <c r="E145" t="n">
         <v>0</v>
       </c>
       <c r="F145" t="n">
-        <v>0</v>
+        <v>6627.3</v>
       </c>
       <c r="G145" t="n">
-        <v>0</v>
+        <v>6370.2</v>
       </c>
       <c r="H145" t="n">
         <v>4.004</v>
@@ -6257,13 +6257,13 @@
         <v>205</v>
       </c>
       <c r="D146" t="n">
-        <v>0</v>
+        <v>1026.4</v>
       </c>
       <c r="E146" t="n">
         <v>0</v>
       </c>
       <c r="F146" t="n">
-        <v>0</v>
+        <v>23673.3</v>
       </c>
       <c r="G146" t="n">
         <v>0</v>
@@ -6298,10 +6298,10 @@
         <v>0</v>
       </c>
       <c r="F147" t="n">
-        <v>0</v>
+        <v>16099.5</v>
       </c>
       <c r="G147" t="n">
-        <v>0</v>
+        <v>11232.8</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -6333,7 +6333,7 @@
         <v>0</v>
       </c>
       <c r="F148" t="n">
-        <v>0</v>
+        <v>12000.1</v>
       </c>
       <c r="G148" t="n">
         <v>0</v>
@@ -6362,16 +6362,16 @@
         <v>209</v>
       </c>
       <c r="D149" t="n">
-        <v>0</v>
+        <v>73809.8</v>
       </c>
       <c r="E149" t="n">
         <v>0</v>
       </c>
       <c r="F149" t="n">
-        <v>0</v>
+        <v>11047.7</v>
       </c>
       <c r="G149" t="n">
-        <v>0</v>
+        <v>3692.6</v>
       </c>
       <c r="H149" t="n">
         <v>119.333</v>
@@ -6397,13 +6397,13 @@
         <v>210</v>
       </c>
       <c r="D150" t="n">
-        <v>0</v>
+        <v>20000.6</v>
       </c>
       <c r="E150" t="n">
         <v>0</v>
       </c>
       <c r="F150" t="n">
-        <v>0</v>
+        <v>4269.6</v>
       </c>
       <c r="G150" t="n">
         <v>0</v>
@@ -6438,10 +6438,10 @@
         <v>0</v>
       </c>
       <c r="F151" t="n">
-        <v>0</v>
+        <v>22497.1</v>
       </c>
       <c r="G151" t="n">
-        <v>0</v>
+        <v>4418.5</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -6473,10 +6473,10 @@
         <v>0</v>
       </c>
       <c r="F152" t="n">
-        <v>0</v>
+        <v>23203</v>
       </c>
       <c r="G152" t="n">
-        <v>0</v>
+        <v>4616.3</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -6508,10 +6508,10 @@
         <v>0</v>
       </c>
       <c r="F153" t="n">
-        <v>0</v>
+        <v>10015.4</v>
       </c>
       <c r="G153" t="n">
-        <v>0</v>
+        <v>46307.3</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -6537,16 +6537,16 @@
         <v>216</v>
       </c>
       <c r="D154" t="n">
-        <v>0</v>
+        <v>1327.1</v>
       </c>
       <c r="E154" t="n">
         <v>0</v>
       </c>
       <c r="F154" t="n">
-        <v>0</v>
+        <v>10881.9</v>
       </c>
       <c r="G154" t="n">
-        <v>0</v>
+        <v>42981.2</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -6572,13 +6572,13 @@
         <v>217</v>
       </c>
       <c r="D155" t="n">
-        <v>0</v>
+        <v>1327.1</v>
       </c>
       <c r="E155" t="n">
         <v>0</v>
       </c>
       <c r="F155" t="n">
-        <v>0</v>
+        <v>722.3</v>
       </c>
       <c r="G155" t="n">
         <v>0</v>
@@ -6613,7 +6613,7 @@
         <v>0</v>
       </c>
       <c r="F156" t="n">
-        <v>0</v>
+        <v>69256.6</v>
       </c>
       <c r="G156" t="n">
         <v>0</v>
@@ -6648,7 +6648,7 @@
         <v>0</v>
       </c>
       <c r="F157" t="n">
-        <v>0</v>
+        <v>79324.5</v>
       </c>
       <c r="G157" t="n">
         <v>0</v>
@@ -6683,7 +6683,7 @@
         <v>0</v>
       </c>
       <c r="F158" t="n">
-        <v>0</v>
+        <v>136291</v>
       </c>
       <c r="G158" t="n">
         <v>0</v>
@@ -6718,7 +6718,7 @@
         <v>0</v>
       </c>
       <c r="F159" t="n">
-        <v>0</v>
+        <v>7136.9</v>
       </c>
       <c r="G159" t="n">
         <v>0</v>
@@ -6753,7 +6753,7 @@
         <v>0</v>
       </c>
       <c r="F160" t="n">
-        <v>0</v>
+        <v>51526.4</v>
       </c>
       <c r="G160" t="n">
         <v>0</v>
@@ -6788,7 +6788,7 @@
         <v>0</v>
       </c>
       <c r="F161" t="n">
-        <v>0</v>
+        <v>37660.3</v>
       </c>
       <c r="G161" t="n">
         <v>0</v>
@@ -6823,7 +6823,7 @@
         <v>0</v>
       </c>
       <c r="F162" t="n">
-        <v>0</v>
+        <v>41651</v>
       </c>
       <c r="G162" t="n">
         <v>0</v>
@@ -6858,7 +6858,7 @@
         <v>0</v>
       </c>
       <c r="F163" t="n">
-        <v>0</v>
+        <v>3129.2</v>
       </c>
       <c r="G163" t="n">
         <v>0</v>
@@ -6887,16 +6887,16 @@
         <v>227</v>
       </c>
       <c r="D164" t="n">
-        <v>0</v>
+        <v>5665.2</v>
       </c>
       <c r="E164" t="n">
-        <v>0</v>
+        <v>6507.9</v>
       </c>
       <c r="F164" t="n">
-        <v>0</v>
+        <v>7884.1</v>
       </c>
       <c r="G164" t="n">
-        <v>0</v>
+        <v>46088.4</v>
       </c>
       <c r="H164" t="n">
         <v>26.807</v>
@@ -6922,13 +6922,13 @@
         <v>228</v>
       </c>
       <c r="D165" t="n">
-        <v>0</v>
+        <v>2020.5</v>
       </c>
       <c r="E165" t="n">
         <v>0</v>
       </c>
       <c r="F165" t="n">
-        <v>0</v>
+        <v>745.1</v>
       </c>
       <c r="G165" t="n">
         <v>0</v>
@@ -6957,16 +6957,16 @@
         <v>71</v>
       </c>
       <c r="D166" t="n">
-        <v>0</v>
+        <v>934.3</v>
       </c>
       <c r="E166" t="n">
         <v>0</v>
       </c>
       <c r="F166" t="n">
-        <v>0</v>
+        <v>10687</v>
       </c>
       <c r="G166" t="n">
-        <v>0</v>
+        <v>28271.9</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -6998,10 +6998,10 @@
         <v>0</v>
       </c>
       <c r="F167" t="n">
-        <v>0</v>
+        <v>16408.1</v>
       </c>
       <c r="G167" t="n">
-        <v>0</v>
+        <v>1246.5</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
